--- a/2-Empirical-Evidence/raw_data/Wisconsin.xlsx
+++ b/2-Empirical-Evidence/raw_data/Wisconsin.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="327">
   <si>
     <t>Local Area Unemployment Statistics</t>
   </si>
@@ -20,7 +20,7 @@
     <t>Years:</t>
   </si>
   <si>
-    <t>1990 to 2020</t>
+    <t>1990 to 2024</t>
   </si>
   <si>
     <t>Series ID</t>
@@ -148,6 +148,22 @@
   <si>
     <t>Annual
 2020</t>
+  </si>
+  <si>
+    <t>Annual
+2021</t>
+  </si>
+  <si>
+    <t>Annual
+2022</t>
+  </si>
+  <si>
+    <t>Annual
+2023</t>
+  </si>
+  <si>
+    <t>Annual
+2024</t>
   </si>
   <si>
     <t>LAUCN550010000000003</t>
@@ -1402,10 +1418,22 @@
       <c r="AF4" t="s" s="3">
         <v>34</v>
       </c>
+      <c r="AG4" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="AH4" t="s" s="3">
+        <v>36</v>
+      </c>
+      <c r="AI4" t="s" s="3">
+        <v>37</v>
+      </c>
+      <c r="AJ4" t="s" s="3">
+        <v>38</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="7">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B5" t="n" s="10">
         <v>5.4</v>
@@ -1500,10 +1528,20 @@
       <c r="AF5" t="n" s="10">
         <v>9.8</v>
       </c>
+      <c r="AG5" t="n" s="10">
+        <v>6.3</v>
+      </c>
+      <c r="AH5" t="n" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="AI5" t="n" s="10">
+        <v>5.1</v>
+      </c>
+      <c r="AJ5"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="7">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B6" t="n" s="8">
         <v>333.0</v>
@@ -1598,10 +1636,20 @@
       <c r="AF6" t="n" s="8">
         <v>796.0</v>
       </c>
+      <c r="AG6" t="n" s="8">
+        <v>498.0</v>
+      </c>
+      <c r="AH6" t="n" s="8">
+        <v>374.0</v>
+      </c>
+      <c r="AI6" t="n" s="8">
+        <v>411.0</v>
+      </c>
+      <c r="AJ6"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="7">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B7" t="n" s="8">
         <v>5808.0</v>
@@ -1696,10 +1744,20 @@
       <c r="AF7" t="n" s="8">
         <v>7334.0</v>
       </c>
+      <c r="AG7" t="n" s="8">
+        <v>7436.0</v>
+      </c>
+      <c r="AH7" t="n" s="8">
+        <v>7362.0</v>
+      </c>
+      <c r="AI7" t="n" s="8">
+        <v>7654.0</v>
+      </c>
+      <c r="AJ7"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="7">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B8" t="n" s="8">
         <v>6141.0</v>
@@ -1794,10 +1852,20 @@
       <c r="AF8" t="n" s="8">
         <v>8130.0</v>
       </c>
+      <c r="AG8" t="n" s="8">
+        <v>7934.0</v>
+      </c>
+      <c r="AH8" t="n" s="8">
+        <v>7736.0</v>
+      </c>
+      <c r="AI8" t="n" s="8">
+        <v>8065.0</v>
+      </c>
+      <c r="AJ8"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="7">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B9" t="n" s="10">
         <v>7.9</v>
@@ -1892,10 +1960,20 @@
       <c r="AF9" t="n" s="10">
         <v>8.8</v>
       </c>
+      <c r="AG9" t="n" s="10">
+        <v>5.2</v>
+      </c>
+      <c r="AH9" t="n" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="AI9" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AJ9"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="7">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B10" t="n" s="8">
         <v>600.0</v>
@@ -1990,10 +2068,20 @@
       <c r="AF10" t="n" s="8">
         <v>673.0</v>
       </c>
+      <c r="AG10" t="n" s="8">
+        <v>394.0</v>
+      </c>
+      <c r="AH10" t="n" s="8">
+        <v>294.0</v>
+      </c>
+      <c r="AI10" t="n" s="8">
+        <v>282.0</v>
+      </c>
+      <c r="AJ10"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="7">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B11" t="n" s="8">
         <v>6975.0</v>
@@ -2088,10 +2176,20 @@
       <c r="AF11" t="n" s="8">
         <v>7017.0</v>
       </c>
+      <c r="AG11" t="n" s="8">
+        <v>7244.0</v>
+      </c>
+      <c r="AH11" t="n" s="8">
+        <v>7206.0</v>
+      </c>
+      <c r="AI11" t="n" s="8">
+        <v>7248.0</v>
+      </c>
+      <c r="AJ11"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="7">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B12" t="n" s="8">
         <v>7575.0</v>
@@ -2186,10 +2284,20 @@
       <c r="AF12" t="n" s="8">
         <v>7690.0</v>
       </c>
+      <c r="AG12" t="n" s="8">
+        <v>7638.0</v>
+      </c>
+      <c r="AH12" t="n" s="8">
+        <v>7500.0</v>
+      </c>
+      <c r="AI12" t="n" s="8">
+        <v>7530.0</v>
+      </c>
+      <c r="AJ12"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="7">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B13" t="n" s="10">
         <v>6.0</v>
@@ -2284,10 +2392,20 @@
       <c r="AF13" t="n" s="10">
         <v>6.2</v>
       </c>
+      <c r="AG13" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AH13" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AI13" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AJ13"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="7">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B14" t="n" s="8">
         <v>1261.0</v>
@@ -2382,10 +2500,20 @@
       <c r="AF14" t="n" s="8">
         <v>1503.0</v>
       </c>
+      <c r="AG14" t="n" s="8">
+        <v>964.0</v>
+      </c>
+      <c r="AH14" t="n" s="8">
+        <v>801.0</v>
+      </c>
+      <c r="AI14" t="n" s="8">
+        <v>851.0</v>
+      </c>
+      <c r="AJ14"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="7">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B15" t="n" s="8">
         <v>19601.0</v>
@@ -2480,10 +2608,20 @@
       <c r="AF15" t="n" s="8">
         <v>22629.0</v>
       </c>
+      <c r="AG15" t="n" s="8">
+        <v>23214.0</v>
+      </c>
+      <c r="AH15" t="n" s="8">
+        <v>23119.0</v>
+      </c>
+      <c r="AI15" t="n" s="8">
+        <v>22997.0</v>
+      </c>
+      <c r="AJ15"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="7">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B16" t="n" s="8">
         <v>20862.0</v>
@@ -2578,10 +2716,20 @@
       <c r="AF16" t="n" s="8">
         <v>24132.0</v>
       </c>
+      <c r="AG16" t="n" s="8">
+        <v>24178.0</v>
+      </c>
+      <c r="AH16" t="n" s="8">
+        <v>23920.0</v>
+      </c>
+      <c r="AI16" t="n" s="8">
+        <v>23848.0</v>
+      </c>
+      <c r="AJ16"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="7">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B17" t="n" s="10">
         <v>7.6</v>
@@ -2676,10 +2824,20 @@
       <c r="AF17" t="n" s="10">
         <v>9.4</v>
       </c>
+      <c r="AG17" t="n" s="10">
+        <v>5.9</v>
+      </c>
+      <c r="AH17" t="n" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="AI17" t="n" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="AJ17"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="7">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B18" t="n" s="8">
         <v>508.0</v>
@@ -2774,10 +2932,20 @@
       <c r="AF18" t="n" s="8">
         <v>709.0</v>
       </c>
+      <c r="AG18" t="n" s="8">
+        <v>441.0</v>
+      </c>
+      <c r="AH18" t="n" s="8">
+        <v>353.0</v>
+      </c>
+      <c r="AI18" t="n" s="8">
+        <v>336.0</v>
+      </c>
+      <c r="AJ18"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="7">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B19" t="n" s="8">
         <v>6152.0</v>
@@ -2872,10 +3040,20 @@
       <c r="AF19" t="n" s="8">
         <v>6852.0</v>
       </c>
+      <c r="AG19" t="n" s="8">
+        <v>7092.0</v>
+      </c>
+      <c r="AH19" t="n" s="8">
+        <v>7034.0</v>
+      </c>
+      <c r="AI19" t="n" s="8">
+        <v>7070.0</v>
+      </c>
+      <c r="AJ19"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="7">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B20" t="n" s="8">
         <v>6660.0</v>
@@ -2970,10 +3148,20 @@
       <c r="AF20" t="n" s="8">
         <v>7561.0</v>
       </c>
+      <c r="AG20" t="n" s="8">
+        <v>7533.0</v>
+      </c>
+      <c r="AH20" t="n" s="8">
+        <v>7387.0</v>
+      </c>
+      <c r="AI20" t="n" s="8">
+        <v>7406.0</v>
+      </c>
+      <c r="AJ20"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="7">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B21" t="n" s="10">
         <v>3.8</v>
@@ -3068,10 +3256,20 @@
       <c r="AF21" t="n" s="10">
         <v>6.2</v>
       </c>
+      <c r="AG21" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AH21" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AI21" t="n" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="AJ21"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="7">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B22" t="n" s="8">
         <v>4090.0</v>
@@ -3166,10 +3364,20 @@
       <c r="AF22" t="n" s="8">
         <v>8736.0</v>
       </c>
+      <c r="AG22" t="n" s="8">
+        <v>4912.0</v>
+      </c>
+      <c r="AH22" t="n" s="8">
+        <v>3683.0</v>
+      </c>
+      <c r="AI22" t="n" s="8">
+        <v>3868.0</v>
+      </c>
+      <c r="AJ22"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="7">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B23" t="n" s="8">
         <v>102381.0</v>
@@ -3264,10 +3472,20 @@
       <c r="AF23" t="n" s="8">
         <v>132856.0</v>
       </c>
+      <c r="AG23" t="n" s="8">
+        <v>136483.0</v>
+      </c>
+      <c r="AH23" t="n" s="8">
+        <v>136985.0</v>
+      </c>
+      <c r="AI23" t="n" s="8">
+        <v>138725.0</v>
+      </c>
+      <c r="AJ23"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="7">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B24" t="n" s="8">
         <v>106471.0</v>
@@ -3362,10 +3580,20 @@
       <c r="AF24" t="n" s="8">
         <v>141592.0</v>
       </c>
+      <c r="AG24" t="n" s="8">
+        <v>141395.0</v>
+      </c>
+      <c r="AH24" t="n" s="8">
+        <v>140668.0</v>
+      </c>
+      <c r="AI24" t="n" s="8">
+        <v>142593.0</v>
+      </c>
+      <c r="AJ24"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="7">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B25" t="n" s="10">
         <v>5.6</v>
@@ -3460,10 +3688,20 @@
       <c r="AF25" t="n" s="10">
         <v>7.6</v>
       </c>
+      <c r="AG25" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AH25" t="n" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="AI25" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AJ25"/>
     </row>
     <row r="26">
       <c r="A26" t="s" s="7">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B26" t="n" s="8">
         <v>398.0</v>
@@ -3558,10 +3796,20 @@
       <c r="AF26" t="n" s="8">
         <v>486.0</v>
       </c>
+      <c r="AG26" t="n" s="8">
+        <v>274.0</v>
+      </c>
+      <c r="AH26" t="n" s="8">
+        <v>240.0</v>
+      </c>
+      <c r="AI26" t="n" s="8">
+        <v>271.0</v>
+      </c>
+      <c r="AJ26"/>
     </row>
     <row r="27">
       <c r="A27" t="s" s="7">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B27" t="n" s="8">
         <v>6758.0</v>
@@ -3656,10 +3904,20 @@
       <c r="AF27" t="n" s="8">
         <v>5925.0</v>
       </c>
+      <c r="AG27" t="n" s="8">
+        <v>6052.0</v>
+      </c>
+      <c r="AH27" t="n" s="8">
+        <v>5951.0</v>
+      </c>
+      <c r="AI27" t="n" s="8">
+        <v>5868.0</v>
+      </c>
+      <c r="AJ27"/>
     </row>
     <row r="28">
       <c r="A28" t="s" s="7">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B28" t="n" s="8">
         <v>7156.0</v>
@@ -3754,10 +4012,20 @@
       <c r="AF28" t="n" s="8">
         <v>6411.0</v>
       </c>
+      <c r="AG28" t="n" s="8">
+        <v>6326.0</v>
+      </c>
+      <c r="AH28" t="n" s="8">
+        <v>6191.0</v>
+      </c>
+      <c r="AI28" t="n" s="8">
+        <v>6139.0</v>
+      </c>
+      <c r="AJ28"/>
     </row>
     <row r="29">
       <c r="A29" t="s" s="7">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B29" t="n" s="10">
         <v>6.3</v>
@@ -3852,10 +4120,20 @@
       <c r="AF29" t="n" s="10">
         <v>9.2</v>
       </c>
+      <c r="AG29" t="n" s="10">
+        <v>5.4</v>
+      </c>
+      <c r="AH29" t="n" s="10">
+        <v>4.6</v>
+      </c>
+      <c r="AI29" t="n" s="10">
+        <v>4.6</v>
+      </c>
+      <c r="AJ29"/>
     </row>
     <row r="30">
       <c r="A30" t="s" s="7">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B30" t="n" s="8">
         <v>367.0</v>
@@ -3950,10 +4228,20 @@
       <c r="AF30" t="n" s="8">
         <v>670.0</v>
       </c>
+      <c r="AG30" t="n" s="8">
+        <v>400.0</v>
+      </c>
+      <c r="AH30" t="n" s="8">
+        <v>336.0</v>
+      </c>
+      <c r="AI30" t="n" s="8">
+        <v>340.0</v>
+      </c>
+      <c r="AJ30"/>
     </row>
     <row r="31">
       <c r="A31" t="s" s="7">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B31" t="n" s="8">
         <v>5458.0</v>
@@ -4048,10 +4336,20 @@
       <c r="AF31" t="n" s="8">
         <v>6591.0</v>
       </c>
+      <c r="AG31" t="n" s="8">
+        <v>6951.0</v>
+      </c>
+      <c r="AH31" t="n" s="8">
+        <v>6915.0</v>
+      </c>
+      <c r="AI31" t="n" s="8">
+        <v>7067.0</v>
+      </c>
+      <c r="AJ31"/>
     </row>
     <row r="32">
       <c r="A32" t="s" s="7">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B32" t="n" s="8">
         <v>5825.0</v>
@@ -4146,10 +4444,20 @@
       <c r="AF32" t="n" s="8">
         <v>7261.0</v>
       </c>
+      <c r="AG32" t="n" s="8">
+        <v>7351.0</v>
+      </c>
+      <c r="AH32" t="n" s="8">
+        <v>7251.0</v>
+      </c>
+      <c r="AI32" t="n" s="8">
+        <v>7407.0</v>
+      </c>
+      <c r="AJ32"/>
     </row>
     <row r="33">
       <c r="A33" t="s" s="7">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B33" t="n" s="10">
         <v>6.6</v>
@@ -4244,10 +4552,20 @@
       <c r="AF33" t="n" s="10">
         <v>4.8</v>
       </c>
+      <c r="AG33" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AH33" t="n" s="10">
+        <v>2.3</v>
+      </c>
+      <c r="AI33" t="n" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="AJ33"/>
     </row>
     <row r="34">
       <c r="A34" t="s" s="7">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B34" t="n" s="8">
         <v>1417.0</v>
@@ -4342,10 +4660,20 @@
       <c r="AF34" t="n" s="8">
         <v>1316.0</v>
       </c>
+      <c r="AG34" t="n" s="8">
+        <v>792.0</v>
+      </c>
+      <c r="AH34" t="n" s="8">
+        <v>639.0</v>
+      </c>
+      <c r="AI34" t="n" s="8">
+        <v>662.0</v>
+      </c>
+      <c r="AJ34"/>
     </row>
     <row r="35">
       <c r="A35" t="s" s="7">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B35" t="n" s="8">
         <v>20082.0</v>
@@ -4440,10 +4768,20 @@
       <c r="AF35" t="n" s="8">
         <v>26036.0</v>
       </c>
+      <c r="AG35" t="n" s="8">
+        <v>26725.0</v>
+      </c>
+      <c r="AH35" t="n" s="8">
+        <v>27029.0</v>
+      </c>
+      <c r="AI35" t="n" s="8">
+        <v>27272.0</v>
+      </c>
+      <c r="AJ35"/>
     </row>
     <row r="36">
       <c r="A36" t="s" s="7">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B36" t="n" s="8">
         <v>21499.0</v>
@@ -4538,10 +4876,20 @@
       <c r="AF36" t="n" s="8">
         <v>27352.0</v>
       </c>
+      <c r="AG36" t="n" s="8">
+        <v>27517.0</v>
+      </c>
+      <c r="AH36" t="n" s="8">
+        <v>27668.0</v>
+      </c>
+      <c r="AI36" t="n" s="8">
+        <v>27934.0</v>
+      </c>
+      <c r="AJ36"/>
     </row>
     <row r="37">
       <c r="A37" t="s" s="7">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B37" t="n" s="10">
         <v>5.7</v>
@@ -4636,10 +4984,20 @@
       <c r="AF37" t="n" s="10">
         <v>6.4</v>
       </c>
+      <c r="AG37" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AH37" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AI37" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AJ37"/>
     </row>
     <row r="38">
       <c r="A38" t="s" s="7">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B38" t="n" s="8">
         <v>1480.0</v>
@@ -4734,10 +5092,20 @@
       <c r="AF38" t="n" s="8">
         <v>2121.0</v>
       </c>
+      <c r="AG38" t="n" s="8">
+        <v>1359.0</v>
+      </c>
+      <c r="AH38" t="n" s="8">
+        <v>1125.0</v>
+      </c>
+      <c r="AI38" t="n" s="8">
+        <v>1202.0</v>
+      </c>
+      <c r="AJ38"/>
     </row>
     <row r="39">
       <c r="A39" t="s" s="7">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B39" t="n" s="8">
         <v>24708.0</v>
@@ -4832,10 +5200,20 @@
       <c r="AF39" t="n" s="8">
         <v>31076.0</v>
       </c>
+      <c r="AG39" t="n" s="8">
+        <v>32304.0</v>
+      </c>
+      <c r="AH39" t="n" s="8">
+        <v>32452.0</v>
+      </c>
+      <c r="AI39" t="n" s="8">
+        <v>32956.0</v>
+      </c>
+      <c r="AJ39"/>
     </row>
     <row r="40">
       <c r="A40" t="s" s="7">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B40" t="n" s="8">
         <v>26188.0</v>
@@ -4930,10 +5308,20 @@
       <c r="AF40" t="n" s="8">
         <v>33197.0</v>
       </c>
+      <c r="AG40" t="n" s="8">
+        <v>33663.0</v>
+      </c>
+      <c r="AH40" t="n" s="8">
+        <v>33577.0</v>
+      </c>
+      <c r="AI40" t="n" s="8">
+        <v>34158.0</v>
+      </c>
+      <c r="AJ40"/>
     </row>
     <row r="41">
       <c r="A41" t="s" s="7">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B41" t="n" s="10">
         <v>6.0</v>
@@ -5028,10 +5416,20 @@
       <c r="AF41" t="n" s="10">
         <v>4.6</v>
       </c>
+      <c r="AG41" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AH41" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AI41" t="n" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AJ41"/>
     </row>
     <row r="42">
       <c r="A42" t="s" s="7">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B42" t="n" s="8">
         <v>937.0</v>
@@ -5126,10 +5524,20 @@
       <c r="AF42" t="n" s="8">
         <v>815.0</v>
       </c>
+      <c r="AG42" t="n" s="8">
+        <v>586.0</v>
+      </c>
+      <c r="AH42" t="n" s="8">
+        <v>467.0</v>
+      </c>
+      <c r="AI42" t="n" s="8">
+        <v>482.0</v>
+      </c>
+      <c r="AJ42"/>
     </row>
     <row r="43">
       <c r="A43" t="s" s="7">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B43" t="n" s="8">
         <v>14617.0</v>
@@ -5224,10 +5632,20 @@
       <c r="AF43" t="n" s="8">
         <v>16784.0</v>
       </c>
+      <c r="AG43" t="n" s="8">
+        <v>17184.0</v>
+      </c>
+      <c r="AH43" t="n" s="8">
+        <v>17184.0</v>
+      </c>
+      <c r="AI43" t="n" s="8">
+        <v>16918.0</v>
+      </c>
+      <c r="AJ43"/>
     </row>
     <row r="44">
       <c r="A44" t="s" s="7">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B44" t="n" s="8">
         <v>15554.0</v>
@@ -5322,10 +5740,20 @@
       <c r="AF44" t="n" s="8">
         <v>17599.0</v>
       </c>
+      <c r="AG44" t="n" s="8">
+        <v>17770.0</v>
+      </c>
+      <c r="AH44" t="n" s="8">
+        <v>17651.0</v>
+      </c>
+      <c r="AI44" t="n" s="8">
+        <v>17400.0</v>
+      </c>
+      <c r="AJ44"/>
     </row>
     <row r="45">
       <c r="A45" t="s" s="7">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B45" t="n" s="10">
         <v>5.6</v>
@@ -5420,10 +5848,20 @@
       <c r="AF45" t="n" s="10">
         <v>6.0</v>
       </c>
+      <c r="AG45" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AH45" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AI45" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AJ45"/>
     </row>
     <row r="46">
       <c r="A46" t="s" s="7">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B46" t="n" s="8">
         <v>1392.0</v>
@@ -5518,10 +5956,20 @@
       <c r="AF46" t="n" s="8">
         <v>1904.0</v>
       </c>
+      <c r="AG46" t="n" s="8">
+        <v>1099.0</v>
+      </c>
+      <c r="AH46" t="n" s="8">
+        <v>837.0</v>
+      </c>
+      <c r="AI46" t="n" s="8">
+        <v>847.0</v>
+      </c>
+      <c r="AJ46"/>
     </row>
     <row r="47">
       <c r="A47" t="s" s="7">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B47" t="n" s="8">
         <v>23565.0</v>
@@ -5616,10 +6064,20 @@
       <c r="AF47" t="n" s="8">
         <v>29573.0</v>
       </c>
+      <c r="AG47" t="n" s="8">
+        <v>30644.0</v>
+      </c>
+      <c r="AH47" t="n" s="8">
+        <v>31081.0</v>
+      </c>
+      <c r="AI47" t="n" s="8">
+        <v>31715.0</v>
+      </c>
+      <c r="AJ47"/>
     </row>
     <row r="48">
       <c r="A48" t="s" s="7">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B48" t="n" s="8">
         <v>24957.0</v>
@@ -5714,10 +6172,20 @@
       <c r="AF48" t="n" s="8">
         <v>31477.0</v>
       </c>
+      <c r="AG48" t="n" s="8">
+        <v>31743.0</v>
+      </c>
+      <c r="AH48" t="n" s="8">
+        <v>31918.0</v>
+      </c>
+      <c r="AI48" t="n" s="8">
+        <v>32562.0</v>
+      </c>
+      <c r="AJ48"/>
     </row>
     <row r="49">
       <c r="A49" t="s" s="7">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B49" t="n" s="10">
         <v>5.4</v>
@@ -5812,10 +6280,20 @@
       <c r="AF49" t="n" s="10">
         <v>7.5</v>
       </c>
+      <c r="AG49" t="n" s="10">
+        <v>4.6</v>
+      </c>
+      <c r="AH49" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AI49" t="n" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="AJ49"/>
     </row>
     <row r="50">
       <c r="A50" t="s" s="7">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B50" t="n" s="8">
         <v>431.0</v>
@@ -5910,10 +6388,20 @@
       <c r="AF50" t="n" s="8">
         <v>559.0</v>
       </c>
+      <c r="AG50" t="n" s="8">
+        <v>339.0</v>
+      </c>
+      <c r="AH50" t="n" s="8">
+        <v>271.0</v>
+      </c>
+      <c r="AI50" t="n" s="8">
+        <v>274.0</v>
+      </c>
+      <c r="AJ50"/>
     </row>
     <row r="51">
       <c r="A51" t="s" s="7">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B51" t="n" s="8">
         <v>7588.0</v>
@@ -6008,10 +6496,20 @@
       <c r="AF51" t="n" s="8">
         <v>6888.0</v>
       </c>
+      <c r="AG51" t="n" s="8">
+        <v>7098.0</v>
+      </c>
+      <c r="AH51" t="n" s="8">
+        <v>6822.0</v>
+      </c>
+      <c r="AI51" t="n" s="8">
+        <v>6694.0</v>
+      </c>
+      <c r="AJ51"/>
     </row>
     <row r="52">
       <c r="A52" t="s" s="7">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B52" t="n" s="8">
         <v>8019.0</v>
@@ -6106,10 +6604,20 @@
       <c r="AF52" t="n" s="8">
         <v>7447.0</v>
       </c>
+      <c r="AG52" t="n" s="8">
+        <v>7437.0</v>
+      </c>
+      <c r="AH52" t="n" s="8">
+        <v>7093.0</v>
+      </c>
+      <c r="AI52" t="n" s="8">
+        <v>6968.0</v>
+      </c>
+      <c r="AJ52"/>
     </row>
     <row r="53">
       <c r="A53" t="s" s="7">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B53" t="n" s="10">
         <v>2.0</v>
@@ -6204,10 +6712,20 @@
       <c r="AF53" t="n" s="10">
         <v>4.9</v>
       </c>
+      <c r="AG53" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AH53" t="n" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="AI53" t="n" s="10">
+        <v>2.3</v>
+      </c>
+      <c r="AJ53"/>
     </row>
     <row r="54">
       <c r="A54" t="s" s="7">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B54" t="n" s="8">
         <v>4405.0</v>
@@ -6302,10 +6820,20 @@
       <c r="AF54" t="n" s="8">
         <v>15932.0</v>
       </c>
+      <c r="AG54" t="n" s="8">
+        <v>9523.0</v>
+      </c>
+      <c r="AH54" t="n" s="8">
+        <v>7091.0</v>
+      </c>
+      <c r="AI54" t="n" s="8">
+        <v>7684.0</v>
+      </c>
+      <c r="AJ54"/>
     </row>
     <row r="55">
       <c r="A55" t="s" s="7">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B55" t="n" s="8">
         <v>214263.0</v>
@@ -6400,10 +6928,20 @@
       <c r="AF55" t="n" s="8">
         <v>307959.0</v>
       </c>
+      <c r="AG55" t="n" s="8">
+        <v>319649.0</v>
+      </c>
+      <c r="AH55" t="n" s="8">
+        <v>324324.0</v>
+      </c>
+      <c r="AI55" t="n" s="8">
+        <v>331631.0</v>
+      </c>
+      <c r="AJ55"/>
     </row>
     <row r="56">
       <c r="A56" t="s" s="7">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B56" t="n" s="8">
         <v>218668.0</v>
@@ -6498,10 +7036,20 @@
       <c r="AF56" t="n" s="8">
         <v>323891.0</v>
       </c>
+      <c r="AG56" t="n" s="8">
+        <v>329172.0</v>
+      </c>
+      <c r="AH56" t="n" s="8">
+        <v>331415.0</v>
+      </c>
+      <c r="AI56" t="n" s="8">
+        <v>339315.0</v>
+      </c>
+      <c r="AJ56"/>
     </row>
     <row r="57">
       <c r="A57" t="s" s="7">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B57" t="n" s="10">
         <v>4.6</v>
@@ -6596,10 +7144,20 @@
       <c r="AF57" t="n" s="10">
         <v>5.4</v>
       </c>
+      <c r="AG57" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AH57" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AI57" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AJ57"/>
     </row>
     <row r="58">
       <c r="A58" t="s" s="7">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B58" t="n" s="8">
         <v>1800.0</v>
@@ -6694,10 +7252,20 @@
       <c r="AF58" t="n" s="8">
         <v>2574.0</v>
       </c>
+      <c r="AG58" t="n" s="8">
+        <v>1558.0</v>
+      </c>
+      <c r="AH58" t="n" s="8">
+        <v>1227.0</v>
+      </c>
+      <c r="AI58" t="n" s="8">
+        <v>1270.0</v>
+      </c>
+      <c r="AJ58"/>
     </row>
     <row r="59">
       <c r="A59" t="s" s="7">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B59" t="n" s="8">
         <v>37633.0</v>
@@ -6792,10 +7360,20 @@
       <c r="AF59" t="n" s="8">
         <v>45224.0</v>
       </c>
+      <c r="AG59" t="n" s="8">
+        <v>46497.0</v>
+      </c>
+      <c r="AH59" t="n" s="8">
+        <v>46412.0</v>
+      </c>
+      <c r="AI59" t="n" s="8">
+        <v>47239.0</v>
+      </c>
+      <c r="AJ59"/>
     </row>
     <row r="60">
       <c r="A60" t="s" s="7">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B60" t="n" s="8">
         <v>39433.0</v>
@@ -6890,10 +7468,20 @@
       <c r="AF60" t="n" s="8">
         <v>47798.0</v>
       </c>
+      <c r="AG60" t="n" s="8">
+        <v>48055.0</v>
+      </c>
+      <c r="AH60" t="n" s="8">
+        <v>47639.0</v>
+      </c>
+      <c r="AI60" t="n" s="8">
+        <v>48509.0</v>
+      </c>
+      <c r="AJ60"/>
     </row>
     <row r="61">
       <c r="A61" t="s" s="7">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B61" t="n" s="10">
         <v>6.6</v>
@@ -6988,10 +7576,20 @@
       <c r="AF61" t="n" s="10">
         <v>7.0</v>
       </c>
+      <c r="AG61" t="n" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="AH61" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AI61" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AJ61"/>
     </row>
     <row r="62">
       <c r="A62" t="s" s="7">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B62" t="n" s="8">
         <v>985.0</v>
@@ -7086,10 +7684,20 @@
       <c r="AF62" t="n" s="8">
         <v>1052.0</v>
       </c>
+      <c r="AG62" t="n" s="8">
+        <v>693.0</v>
+      </c>
+      <c r="AH62" t="n" s="8">
+        <v>478.0</v>
+      </c>
+      <c r="AI62" t="n" s="8">
+        <v>473.0</v>
+      </c>
+      <c r="AJ62"/>
     </row>
     <row r="63">
       <c r="A63" t="s" s="7">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B63" t="n" s="8">
         <v>13851.0</v>
@@ -7184,10 +7792,20 @@
       <c r="AF63" t="n" s="8">
         <v>14048.0</v>
       </c>
+      <c r="AG63" t="n" s="8">
+        <v>14869.0</v>
+      </c>
+      <c r="AH63" t="n" s="8">
+        <v>14766.0</v>
+      </c>
+      <c r="AI63" t="n" s="8">
+        <v>15117.0</v>
+      </c>
+      <c r="AJ63"/>
     </row>
     <row r="64">
       <c r="A64" t="s" s="7">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B64" t="n" s="8">
         <v>14836.0</v>
@@ -7282,10 +7900,20 @@
       <c r="AF64" t="n" s="8">
         <v>15100.0</v>
       </c>
+      <c r="AG64" t="n" s="8">
+        <v>15562.0</v>
+      </c>
+      <c r="AH64" t="n" s="8">
+        <v>15244.0</v>
+      </c>
+      <c r="AI64" t="n" s="8">
+        <v>15590.0</v>
+      </c>
+      <c r="AJ64"/>
     </row>
     <row r="65">
       <c r="A65" t="s" s="7">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B65" t="n" s="10">
         <v>5.7</v>
@@ -7380,10 +8008,20 @@
       <c r="AF65" t="n" s="10">
         <v>9.3</v>
       </c>
+      <c r="AG65" t="n" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="AH65" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AI65" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AJ65"/>
     </row>
     <row r="66">
       <c r="A66" t="s" s="7">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B66" t="n" s="8">
         <v>1111.0</v>
@@ -7478,10 +8116,20 @@
       <c r="AF66" t="n" s="8">
         <v>2167.0</v>
       </c>
+      <c r="AG66" t="n" s="8">
+        <v>1035.0</v>
+      </c>
+      <c r="AH66" t="n" s="8">
+        <v>929.0</v>
+      </c>
+      <c r="AI66" t="n" s="8">
+        <v>1003.0</v>
+      </c>
+      <c r="AJ66"/>
     </row>
     <row r="67">
       <c r="A67" t="s" s="7">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B67" t="n" s="8">
         <v>18337.0</v>
@@ -7576,10 +8224,20 @@
       <c r="AF67" t="n" s="8">
         <v>21256.0</v>
       </c>
+      <c r="AG67" t="n" s="8">
+        <v>21760.0</v>
+      </c>
+      <c r="AH67" t="n" s="8">
+        <v>21832.0</v>
+      </c>
+      <c r="AI67" t="n" s="8">
+        <v>22062.0</v>
+      </c>
+      <c r="AJ67"/>
     </row>
     <row r="68">
       <c r="A68" t="s" s="7">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B68" t="n" s="8">
         <v>19448.0</v>
@@ -7674,10 +8332,20 @@
       <c r="AF68" t="n" s="8">
         <v>23423.0</v>
       </c>
+      <c r="AG68" t="n" s="8">
+        <v>22795.0</v>
+      </c>
+      <c r="AH68" t="n" s="8">
+        <v>22761.0</v>
+      </c>
+      <c r="AI68" t="n" s="8">
+        <v>23065.0</v>
+      </c>
+      <c r="AJ68"/>
     </row>
     <row r="69">
       <c r="A69" t="s" s="7">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B69" t="n" s="10">
         <v>3.9</v>
@@ -7772,10 +8440,20 @@
       <c r="AF69" t="n" s="10">
         <v>5.7</v>
       </c>
+      <c r="AG69" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AH69" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AI69" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AJ69"/>
     </row>
     <row r="70">
       <c r="A70" t="s" s="7">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B70" t="n" s="8">
         <v>715.0</v>
@@ -7870,10 +8548,20 @@
       <c r="AF70" t="n" s="8">
         <v>1355.0</v>
       </c>
+      <c r="AG70" t="n" s="8">
+        <v>874.0</v>
+      </c>
+      <c r="AH70" t="n" s="8">
+        <v>748.0</v>
+      </c>
+      <c r="AI70" t="n" s="8">
+        <v>823.0</v>
+      </c>
+      <c r="AJ70"/>
     </row>
     <row r="71">
       <c r="A71" t="s" s="7">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B71" t="n" s="8">
         <v>17545.0</v>
@@ -7968,10 +8656,20 @@
       <c r="AF71" t="n" s="8">
         <v>22496.0</v>
       </c>
+      <c r="AG71" t="n" s="8">
+        <v>23071.0</v>
+      </c>
+      <c r="AH71" t="n" s="8">
+        <v>23272.0</v>
+      </c>
+      <c r="AI71" t="n" s="8">
+        <v>23512.0</v>
+      </c>
+      <c r="AJ71"/>
     </row>
     <row r="72">
       <c r="A72" t="s" s="7">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B72" t="n" s="8">
         <v>18260.0</v>
@@ -8066,10 +8764,20 @@
       <c r="AF72" t="n" s="8">
         <v>23851.0</v>
       </c>
+      <c r="AG72" t="n" s="8">
+        <v>23945.0</v>
+      </c>
+      <c r="AH72" t="n" s="8">
+        <v>24020.0</v>
+      </c>
+      <c r="AI72" t="n" s="8">
+        <v>24335.0</v>
+      </c>
+      <c r="AJ72"/>
     </row>
     <row r="73">
       <c r="A73" t="s" s="7">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B73" t="n" s="10">
         <v>5.0</v>
@@ -8164,10 +8872,20 @@
       <c r="AF73" t="n" s="10">
         <v>5.7</v>
       </c>
+      <c r="AG73" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AH73" t="n" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="AI73" t="n" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="AJ73"/>
     </row>
     <row r="74">
       <c r="A74" t="s" s="7">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B74" t="n" s="8">
         <v>2225.0</v>
@@ -8262,10 +8980,20 @@
       <c r="AF74" t="n" s="8">
         <v>3362.0</v>
       </c>
+      <c r="AG74" t="n" s="8">
+        <v>1975.0</v>
+      </c>
+      <c r="AH74" t="n" s="8">
+        <v>1504.0</v>
+      </c>
+      <c r="AI74" t="n" s="8">
+        <v>1645.0</v>
+      </c>
+      <c r="AJ74"/>
     </row>
     <row r="75">
       <c r="A75" t="s" s="7">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B75" t="n" s="8">
         <v>42104.0</v>
@@ -8360,10 +9088,20 @@
       <c r="AF75" t="n" s="8">
         <v>55558.0</v>
       </c>
+      <c r="AG75" t="n" s="8">
+        <v>57809.0</v>
+      </c>
+      <c r="AH75" t="n" s="8">
+        <v>58133.0</v>
+      </c>
+      <c r="AI75" t="n" s="8">
+        <v>59161.0</v>
+      </c>
+      <c r="AJ75"/>
     </row>
     <row r="76">
       <c r="A76" t="s" s="7">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B76" t="n" s="8">
         <v>44329.0</v>
@@ -8458,10 +9196,20 @@
       <c r="AF76" t="n" s="8">
         <v>58920.0</v>
       </c>
+      <c r="AG76" t="n" s="8">
+        <v>59784.0</v>
+      </c>
+      <c r="AH76" t="n" s="8">
+        <v>59637.0</v>
+      </c>
+      <c r="AI76" t="n" s="8">
+        <v>60806.0</v>
+      </c>
+      <c r="AJ76"/>
     </row>
     <row r="77">
       <c r="A77" t="s" s="7">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B77" t="n" s="10">
         <v>3.7</v>
@@ -8556,10 +9304,20 @@
       <c r="AF77" t="n" s="10">
         <v>8.2</v>
       </c>
+      <c r="AG77" t="n" s="10">
+        <v>4.9</v>
+      </c>
+      <c r="AH77" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AI77" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AJ77"/>
     </row>
     <row r="78">
       <c r="A78" t="s" s="7">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B78" t="n" s="8">
         <v>81.0</v>
@@ -8654,10 +9412,20 @@
       <c r="AF78" t="n" s="8">
         <v>180.0</v>
       </c>
+      <c r="AG78" t="n" s="8">
+        <v>108.0</v>
+      </c>
+      <c r="AH78" t="n" s="8">
+        <v>77.0</v>
+      </c>
+      <c r="AI78" t="n" s="8">
+        <v>75.0</v>
+      </c>
+      <c r="AJ78"/>
     </row>
     <row r="79">
       <c r="A79" t="s" s="7">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B79" t="n" s="8">
         <v>2090.0</v>
@@ -8752,10 +9520,20 @@
       <c r="AF79" t="n" s="8">
         <v>2026.0</v>
       </c>
+      <c r="AG79" t="n" s="8">
+        <v>2117.0</v>
+      </c>
+      <c r="AH79" t="n" s="8">
+        <v>2076.0</v>
+      </c>
+      <c r="AI79" t="n" s="8">
+        <v>2112.0</v>
+      </c>
+      <c r="AJ79"/>
     </row>
     <row r="80">
       <c r="A80" t="s" s="7">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B80" t="n" s="8">
         <v>2171.0</v>
@@ -8850,10 +9628,20 @@
       <c r="AF80" t="n" s="8">
         <v>2206.0</v>
       </c>
+      <c r="AG80" t="n" s="8">
+        <v>2225.0</v>
+      </c>
+      <c r="AH80" t="n" s="8">
+        <v>2153.0</v>
+      </c>
+      <c r="AI80" t="n" s="8">
+        <v>2187.0</v>
+      </c>
+      <c r="AJ80"/>
     </row>
     <row r="81">
       <c r="A81" t="s" s="7">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B81" t="n" s="10">
         <v>5.1</v>
@@ -8948,10 +9736,20 @@
       <c r="AF81" t="n" s="10">
         <v>6.0</v>
       </c>
+      <c r="AG81" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AH81" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AI81" t="n" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="AJ81"/>
     </row>
     <row r="82">
       <c r="A82" t="s" s="7">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B82" t="n" s="8">
         <v>2509.0</v>
@@ -9046,10 +9844,20 @@
       <c r="AF82" t="n" s="8">
         <v>3377.0</v>
       </c>
+      <c r="AG82" t="n" s="8">
+        <v>1869.0</v>
+      </c>
+      <c r="AH82" t="n" s="8">
+        <v>1440.0</v>
+      </c>
+      <c r="AI82" t="n" s="8">
+        <v>1498.0</v>
+      </c>
+      <c r="AJ82"/>
     </row>
     <row r="83">
       <c r="A83" t="s" s="7">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B83" t="n" s="8">
         <v>46342.0</v>
@@ -9144,10 +9952,20 @@
       <c r="AF83" t="n" s="8">
         <v>52906.0</v>
       </c>
+      <c r="AG83" t="n" s="8">
+        <v>54642.0</v>
+      </c>
+      <c r="AH83" t="n" s="8">
+        <v>54814.0</v>
+      </c>
+      <c r="AI83" t="n" s="8">
+        <v>54837.0</v>
+      </c>
+      <c r="AJ83"/>
     </row>
     <row r="84">
       <c r="A84" t="s" s="7">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B84" t="n" s="8">
         <v>48851.0</v>
@@ -9242,10 +10060,20 @@
       <c r="AF84" t="n" s="8">
         <v>56283.0</v>
       </c>
+      <c r="AG84" t="n" s="8">
+        <v>56511.0</v>
+      </c>
+      <c r="AH84" t="n" s="8">
+        <v>56254.0</v>
+      </c>
+      <c r="AI84" t="n" s="8">
+        <v>56335.0</v>
+      </c>
+      <c r="AJ84"/>
     </row>
     <row r="85">
       <c r="A85" t="s" s="7">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B85" t="n" s="10">
         <v>6.7</v>
@@ -9340,10 +10168,20 @@
       <c r="AF85" t="n" s="10">
         <v>12.8</v>
       </c>
+      <c r="AG85" t="n" s="10">
+        <v>6.7</v>
+      </c>
+      <c r="AH85" t="n" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="AI85" t="n" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="AJ85"/>
     </row>
     <row r="86">
       <c r="A86" t="s" s="7">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B86" t="n" s="8">
         <v>238.0</v>
@@ -9438,10 +10276,20 @@
       <c r="AF86" t="n" s="8">
         <v>504.0</v>
       </c>
+      <c r="AG86" t="n" s="8">
+        <v>262.0</v>
+      </c>
+      <c r="AH86" t="n" s="8">
+        <v>182.0</v>
+      </c>
+      <c r="AI86" t="n" s="8">
+        <v>191.0</v>
+      </c>
+      <c r="AJ86"/>
     </row>
     <row r="87">
       <c r="A87" t="s" s="7">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B87" t="n" s="8">
         <v>3308.0</v>
@@ -9536,10 +10384,20 @@
       <c r="AF87" t="n" s="8">
         <v>3427.0</v>
       </c>
+      <c r="AG87" t="n" s="8">
+        <v>3630.0</v>
+      </c>
+      <c r="AH87" t="n" s="8">
+        <v>3685.0</v>
+      </c>
+      <c r="AI87" t="n" s="8">
+        <v>3756.0</v>
+      </c>
+      <c r="AJ87"/>
     </row>
     <row r="88">
       <c r="A88" t="s" s="7">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B88" t="n" s="8">
         <v>3546.0</v>
@@ -9634,10 +10492,20 @@
       <c r="AF88" t="n" s="8">
         <v>3931.0</v>
       </c>
+      <c r="AG88" t="n" s="8">
+        <v>3892.0</v>
+      </c>
+      <c r="AH88" t="n" s="8">
+        <v>3867.0</v>
+      </c>
+      <c r="AI88" t="n" s="8">
+        <v>3947.0</v>
+      </c>
+      <c r="AJ88"/>
     </row>
     <row r="89">
       <c r="A89" t="s" s="7">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B89" t="n" s="10">
         <v>4.7</v>
@@ -9732,10 +10600,20 @@
       <c r="AF89" t="n" s="10">
         <v>5.3</v>
       </c>
+      <c r="AG89" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AH89" t="n" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="AI89" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AJ89"/>
     </row>
     <row r="90">
       <c r="A90" t="s" s="7">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B90" t="n" s="8">
         <v>1176.0</v>
@@ -9830,10 +10708,20 @@
       <c r="AF90" t="n" s="8">
         <v>1472.0</v>
       </c>
+      <c r="AG90" t="n" s="8">
+        <v>852.0</v>
+      </c>
+      <c r="AH90" t="n" s="8">
+        <v>741.0</v>
+      </c>
+      <c r="AI90" t="n" s="8">
+        <v>778.0</v>
+      </c>
+      <c r="AJ90"/>
     </row>
     <row r="91">
       <c r="A91" t="s" s="7">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B91" t="n" s="8">
         <v>24103.0</v>
@@ -9928,10 +10816,20 @@
       <c r="AF91" t="n" s="8">
         <v>26099.0</v>
       </c>
+      <c r="AG91" t="n" s="8">
+        <v>26445.0</v>
+      </c>
+      <c r="AH91" t="n" s="8">
+        <v>26326.0</v>
+      </c>
+      <c r="AI91" t="n" s="8">
+        <v>25962.0</v>
+      </c>
+      <c r="AJ91"/>
     </row>
     <row r="92">
       <c r="A92" t="s" s="7">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B92" t="n" s="8">
         <v>25279.0</v>
@@ -10026,10 +10924,20 @@
       <c r="AF92" t="n" s="8">
         <v>27571.0</v>
       </c>
+      <c r="AG92" t="n" s="8">
+        <v>27297.0</v>
+      </c>
+      <c r="AH92" t="n" s="8">
+        <v>27067.0</v>
+      </c>
+      <c r="AI92" t="n" s="8">
+        <v>26740.0</v>
+      </c>
+      <c r="AJ92"/>
     </row>
     <row r="93">
       <c r="A93" t="s" s="7">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B93" t="n" s="10">
         <v>3.9</v>
@@ -10124,10 +11032,20 @@
       <c r="AF93" t="n" s="10">
         <v>5.0</v>
       </c>
+      <c r="AG93" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AH93" t="n" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="AI93" t="n" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="AJ93"/>
     </row>
     <row r="94">
       <c r="A94" t="s" s="7">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B94" t="n" s="8">
         <v>689.0</v>
@@ -10222,10 +11140,20 @@
       <c r="AF94" t="n" s="8">
         <v>1019.0</v>
       </c>
+      <c r="AG94" t="n" s="8">
+        <v>643.0</v>
+      </c>
+      <c r="AH94" t="n" s="8">
+        <v>506.0</v>
+      </c>
+      <c r="AI94" t="n" s="8">
+        <v>518.0</v>
+      </c>
+      <c r="AJ94"/>
     </row>
     <row r="95">
       <c r="A95" t="s" s="7">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B95" t="n" s="8">
         <v>17169.0</v>
@@ -10320,10 +11248,20 @@
       <c r="AF95" t="n" s="8">
         <v>19434.0</v>
       </c>
+      <c r="AG95" t="n" s="8">
+        <v>20124.0</v>
+      </c>
+      <c r="AH95" t="n" s="8">
+        <v>20374.0</v>
+      </c>
+      <c r="AI95" t="n" s="8">
+        <v>20738.0</v>
+      </c>
+      <c r="AJ95"/>
     </row>
     <row r="96">
       <c r="A96" t="s" s="7">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B96" t="n" s="8">
         <v>17858.0</v>
@@ -10418,10 +11356,20 @@
       <c r="AF96" t="n" s="8">
         <v>20453.0</v>
       </c>
+      <c r="AG96" t="n" s="8">
+        <v>20767.0</v>
+      </c>
+      <c r="AH96" t="n" s="8">
+        <v>20880.0</v>
+      </c>
+      <c r="AI96" t="n" s="8">
+        <v>21256.0</v>
+      </c>
+      <c r="AJ96"/>
     </row>
     <row r="97">
       <c r="A97" t="s" s="7">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B97" t="n" s="10">
         <v>6.2</v>
@@ -10516,10 +11464,20 @@
       <c r="AF97" t="n" s="10">
         <v>7.0</v>
       </c>
+      <c r="AG97" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AH97" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AI97" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AJ97"/>
     </row>
     <row r="98">
       <c r="A98" t="s" s="7">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B98" t="n" s="8">
         <v>586.0</v>
@@ -10614,10 +11572,20 @@
       <c r="AF98" t="n" s="8">
         <v>652.0</v>
       </c>
+      <c r="AG98" t="n" s="8">
+        <v>412.0</v>
+      </c>
+      <c r="AH98" t="n" s="8">
+        <v>307.0</v>
+      </c>
+      <c r="AI98" t="n" s="8">
+        <v>314.0</v>
+      </c>
+      <c r="AJ98"/>
     </row>
     <row r="99">
       <c r="A99" t="s" s="7">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B99" t="n" s="8">
         <v>8880.0</v>
@@ -10712,10 +11680,20 @@
       <c r="AF99" t="n" s="8">
         <v>8662.0</v>
       </c>
+      <c r="AG99" t="n" s="8">
+        <v>8930.0</v>
+      </c>
+      <c r="AH99" t="n" s="8">
+        <v>8811.0</v>
+      </c>
+      <c r="AI99" t="n" s="8">
+        <v>8891.0</v>
+      </c>
+      <c r="AJ99"/>
     </row>
     <row r="100">
       <c r="A100" t="s" s="7">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B100" t="n" s="8">
         <v>9466.0</v>
@@ -10810,10 +11788,20 @@
       <c r="AF100" t="n" s="8">
         <v>9314.0</v>
       </c>
+      <c r="AG100" t="n" s="8">
+        <v>9342.0</v>
+      </c>
+      <c r="AH100" t="n" s="8">
+        <v>9118.0</v>
+      </c>
+      <c r="AI100" t="n" s="8">
+        <v>9205.0</v>
+      </c>
+      <c r="AJ100"/>
     </row>
     <row r="101">
       <c r="A101" t="s" s="7">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B101" t="n" s="10">
         <v>3.9</v>
@@ -10908,10 +11896,20 @@
       <c r="AF101" t="n" s="10">
         <v>6.2</v>
       </c>
+      <c r="AG101" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AH101" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AI101" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AJ101"/>
     </row>
     <row r="102">
       <c r="A102" t="s" s="7">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B102" t="n" s="8">
         <v>465.0</v>
@@ -11006,10 +12004,20 @@
       <c r="AF102" t="n" s="8">
         <v>846.0</v>
       </c>
+      <c r="AG102" t="n" s="8">
+        <v>473.0</v>
+      </c>
+      <c r="AH102" t="n" s="8">
+        <v>356.0</v>
+      </c>
+      <c r="AI102" t="n" s="8">
+        <v>359.0</v>
+      </c>
+      <c r="AJ102"/>
     </row>
     <row r="103">
       <c r="A103" t="s" s="7">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B103" t="n" s="8">
         <v>11384.0</v>
@@ -11104,10 +12112,20 @@
       <c r="AF103" t="n" s="8">
         <v>12698.0</v>
       </c>
+      <c r="AG103" t="n" s="8">
+        <v>13140.0</v>
+      </c>
+      <c r="AH103" t="n" s="8">
+        <v>13280.0</v>
+      </c>
+      <c r="AI103" t="n" s="8">
+        <v>13484.0</v>
+      </c>
+      <c r="AJ103"/>
     </row>
     <row r="104">
       <c r="A104" t="s" s="7">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B104" t="n" s="8">
         <v>11849.0</v>
@@ -11202,10 +12220,20 @@
       <c r="AF104" t="n" s="8">
         <v>13544.0</v>
       </c>
+      <c r="AG104" t="n" s="8">
+        <v>13613.0</v>
+      </c>
+      <c r="AH104" t="n" s="8">
+        <v>13636.0</v>
+      </c>
+      <c r="AI104" t="n" s="8">
+        <v>13843.0</v>
+      </c>
+      <c r="AJ104"/>
     </row>
     <row r="105">
       <c r="A105" t="s" s="7">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B105" t="n" s="10">
         <v>6.1</v>
@@ -11300,10 +12328,20 @@
       <c r="AF105" t="n" s="10">
         <v>11.5</v>
       </c>
+      <c r="AG105" t="n" s="10">
+        <v>6.5</v>
+      </c>
+      <c r="AH105" t="n" s="10">
+        <v>5.2</v>
+      </c>
+      <c r="AI105" t="n" s="10">
+        <v>5.5</v>
+      </c>
+      <c r="AJ105"/>
     </row>
     <row r="106">
       <c r="A106" t="s" s="7">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B106" t="n" s="8">
         <v>172.0</v>
@@ -11398,10 +12436,20 @@
       <c r="AF106" t="n" s="8">
         <v>297.0</v>
       </c>
+      <c r="AG106" t="n" s="8">
+        <v>166.0</v>
+      </c>
+      <c r="AH106" t="n" s="8">
+        <v>130.0</v>
+      </c>
+      <c r="AI106" t="n" s="8">
+        <v>141.0</v>
+      </c>
+      <c r="AJ106"/>
     </row>
     <row r="107">
       <c r="A107" t="s" s="7">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B107" t="n" s="8">
         <v>2633.0</v>
@@ -11496,10 +12544,20 @@
       <c r="AF107" t="n" s="8">
         <v>2279.0</v>
       </c>
+      <c r="AG107" t="n" s="8">
+        <v>2399.0</v>
+      </c>
+      <c r="AH107" t="n" s="8">
+        <v>2385.0</v>
+      </c>
+      <c r="AI107" t="n" s="8">
+        <v>2432.0</v>
+      </c>
+      <c r="AJ107"/>
     </row>
     <row r="108">
       <c r="A108" t="s" s="7">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B108" t="n" s="8">
         <v>2805.0</v>
@@ -11594,10 +12652,20 @@
       <c r="AF108" t="n" s="8">
         <v>2576.0</v>
       </c>
+      <c r="AG108" t="n" s="8">
+        <v>2565.0</v>
+      </c>
+      <c r="AH108" t="n" s="8">
+        <v>2515.0</v>
+      </c>
+      <c r="AI108" t="n" s="8">
+        <v>2573.0</v>
+      </c>
+      <c r="AJ108"/>
     </row>
     <row r="109">
       <c r="A109" t="s" s="7">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B109" t="n" s="10">
         <v>6.2</v>
@@ -11692,10 +12760,20 @@
       <c r="AF109" t="n" s="10">
         <v>9.5</v>
       </c>
+      <c r="AG109" t="n" s="10">
+        <v>5.2</v>
+      </c>
+      <c r="AH109" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AI109" t="n" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="AJ109"/>
     </row>
     <row r="110">
       <c r="A110" t="s" s="7">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B110" t="n" s="8">
         <v>501.0</v>
@@ -11790,10 +12868,20 @@
       <c r="AF110" t="n" s="8">
         <v>949.0</v>
       </c>
+      <c r="AG110" t="n" s="8">
+        <v>500.0</v>
+      </c>
+      <c r="AH110" t="n" s="8">
+        <v>360.0</v>
+      </c>
+      <c r="AI110" t="n" s="8">
+        <v>359.0</v>
+      </c>
+      <c r="AJ110"/>
     </row>
     <row r="111">
       <c r="A111" t="s" s="7">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B111" t="n" s="8">
         <v>7630.0</v>
@@ -11888,10 +12976,20 @@
       <c r="AF111" t="n" s="8">
         <v>9060.0</v>
       </c>
+      <c r="AG111" t="n" s="8">
+        <v>9051.0</v>
+      </c>
+      <c r="AH111" t="n" s="8">
+        <v>9021.0</v>
+      </c>
+      <c r="AI111" t="n" s="8">
+        <v>8868.0</v>
+      </c>
+      <c r="AJ111"/>
     </row>
     <row r="112">
       <c r="A112" t="s" s="7">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B112" t="n" s="8">
         <v>8131.0</v>
@@ -11986,10 +13084,20 @@
       <c r="AF112" t="n" s="8">
         <v>10009.0</v>
       </c>
+      <c r="AG112" t="n" s="8">
+        <v>9551.0</v>
+      </c>
+      <c r="AH112" t="n" s="8">
+        <v>9381.0</v>
+      </c>
+      <c r="AI112" t="n" s="8">
+        <v>9227.0</v>
+      </c>
+      <c r="AJ112"/>
     </row>
     <row r="113">
       <c r="A113" t="s" s="7">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B113" t="n" s="10">
         <v>3.9</v>
@@ -12084,10 +13192,20 @@
       <c r="AF113" t="n" s="10">
         <v>5.6</v>
       </c>
+      <c r="AG113" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AH113" t="n" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="AI113" t="n" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AJ113"/>
     </row>
     <row r="114">
       <c r="A114" t="s" s="7">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B114" t="n" s="8">
         <v>1462.0</v>
@@ -12182,10 +13300,20 @@
       <c r="AF114" t="n" s="8">
         <v>2547.0</v>
       </c>
+      <c r="AG114" t="n" s="8">
+        <v>1581.0</v>
+      </c>
+      <c r="AH114" t="n" s="8">
+        <v>1240.0</v>
+      </c>
+      <c r="AI114" t="n" s="8">
+        <v>1273.0</v>
+      </c>
+      <c r="AJ114"/>
     </row>
     <row r="115">
       <c r="A115" t="s" s="7">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B115" t="n" s="8">
         <v>36270.0</v>
@@ -12280,10 +13408,20 @@
       <c r="AF115" t="n" s="8">
         <v>42995.0</v>
       </c>
+      <c r="AG115" t="n" s="8">
+        <v>44499.0</v>
+      </c>
+      <c r="AH115" t="n" s="8">
+        <v>44849.0</v>
+      </c>
+      <c r="AI115" t="n" s="8">
+        <v>44919.0</v>
+      </c>
+      <c r="AJ115"/>
     </row>
     <row r="116">
       <c r="A116" t="s" s="7">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B116" t="n" s="8">
         <v>37732.0</v>
@@ -12378,10 +13516,20 @@
       <c r="AF116" t="n" s="8">
         <v>45542.0</v>
       </c>
+      <c r="AG116" t="n" s="8">
+        <v>46080.0</v>
+      </c>
+      <c r="AH116" t="n" s="8">
+        <v>46089.0</v>
+      </c>
+      <c r="AI116" t="n" s="8">
+        <v>46192.0</v>
+      </c>
+      <c r="AJ116"/>
     </row>
     <row r="117">
       <c r="A117" t="s" s="7">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B117" t="n" s="10">
         <v>6.9</v>
@@ -12476,10 +13624,20 @@
       <c r="AF117" t="n" s="10">
         <v>7.4</v>
       </c>
+      <c r="AG117" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AH117" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AI117" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AJ117"/>
     </row>
     <row r="118">
       <c r="A118" t="s" s="7">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B118" t="n" s="8">
         <v>729.0</v>
@@ -12574,10 +13732,20 @@
       <c r="AF118" t="n" s="8">
         <v>988.0</v>
       </c>
+      <c r="AG118" t="n" s="8">
+        <v>590.0</v>
+      </c>
+      <c r="AH118" t="n" s="8">
+        <v>430.0</v>
+      </c>
+      <c r="AI118" t="n" s="8">
+        <v>434.0</v>
+      </c>
+      <c r="AJ118"/>
     </row>
     <row r="119">
       <c r="A119" t="s" s="7">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B119" t="n" s="8">
         <v>9810.0</v>
@@ -12672,10 +13840,20 @@
       <c r="AF119" t="n" s="8">
         <v>12451.0</v>
       </c>
+      <c r="AG119" t="n" s="8">
+        <v>12861.0</v>
+      </c>
+      <c r="AH119" t="n" s="8">
+        <v>12856.0</v>
+      </c>
+      <c r="AI119" t="n" s="8">
+        <v>13169.0</v>
+      </c>
+      <c r="AJ119"/>
     </row>
     <row r="120">
       <c r="A120" t="s" s="7">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B120" t="n" s="8">
         <v>10539.0</v>
@@ -12770,10 +13948,20 @@
       <c r="AF120" t="n" s="8">
         <v>13439.0</v>
       </c>
+      <c r="AG120" t="n" s="8">
+        <v>13451.0</v>
+      </c>
+      <c r="AH120" t="n" s="8">
+        <v>13286.0</v>
+      </c>
+      <c r="AI120" t="n" s="8">
+        <v>13603.0</v>
+      </c>
+      <c r="AJ120"/>
     </row>
     <row r="121">
       <c r="A121" t="s" s="7">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B121" t="n" s="10">
         <v>6.1</v>
@@ -12868,10 +14056,20 @@
       <c r="AF121" t="n" s="10">
         <v>7.2</v>
       </c>
+      <c r="AG121" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AH121" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AI121" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AJ121"/>
     </row>
     <row r="122">
       <c r="A122" t="s" s="7">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B122" t="n" s="8">
         <v>4050.0</v>
@@ -12966,10 +14164,20 @@
       <c r="AF122" t="n" s="8">
         <v>6506.0</v>
       </c>
+      <c r="AG122" t="n" s="8">
+        <v>3960.0</v>
+      </c>
+      <c r="AH122" t="n" s="8">
+        <v>2955.0</v>
+      </c>
+      <c r="AI122" t="n" s="8">
+        <v>3151.0</v>
+      </c>
+      <c r="AJ122"/>
     </row>
     <row r="123">
       <c r="A123" t="s" s="7">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B123" t="n" s="8">
         <v>62476.0</v>
@@ -13064,10 +14272,20 @@
       <c r="AF123" t="n" s="8">
         <v>83390.0</v>
       </c>
+      <c r="AG123" t="n" s="8">
+        <v>86169.0</v>
+      </c>
+      <c r="AH123" t="n" s="8">
+        <v>87396.0</v>
+      </c>
+      <c r="AI123" t="n" s="8">
+        <v>88461.0</v>
+      </c>
+      <c r="AJ123"/>
     </row>
     <row r="124">
       <c r="A124" t="s" s="7">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B124" t="n" s="8">
         <v>66526.0</v>
@@ -13162,10 +14380,20 @@
       <c r="AF124" t="n" s="8">
         <v>89896.0</v>
       </c>
+      <c r="AG124" t="n" s="8">
+        <v>90129.0</v>
+      </c>
+      <c r="AH124" t="n" s="8">
+        <v>90351.0</v>
+      </c>
+      <c r="AI124" t="n" s="8">
+        <v>91612.0</v>
+      </c>
+      <c r="AJ124"/>
     </row>
     <row r="125">
       <c r="A125" t="s" s="7">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B125" t="n" s="10">
         <v>4.6</v>
@@ -13260,10 +14488,20 @@
       <c r="AF125" t="n" s="10">
         <v>4.7</v>
       </c>
+      <c r="AG125" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AH125" t="n" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="AI125" t="n" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="AJ125"/>
     </row>
     <row r="126">
       <c r="A126" t="s" s="7">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B126" t="n" s="8">
         <v>460.0</v>
@@ -13358,10 +14596,20 @@
       <c r="AF126" t="n" s="8">
         <v>506.0</v>
       </c>
+      <c r="AG126" t="n" s="8">
+        <v>319.0</v>
+      </c>
+      <c r="AH126" t="n" s="8">
+        <v>270.0</v>
+      </c>
+      <c r="AI126" t="n" s="8">
+        <v>271.0</v>
+      </c>
+      <c r="AJ126"/>
     </row>
     <row r="127">
       <c r="A127" t="s" s="7">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B127" t="n" s="8">
         <v>9603.0</v>
@@ -13456,10 +14704,20 @@
       <c r="AF127" t="n" s="8">
         <v>10219.0</v>
       </c>
+      <c r="AG127" t="n" s="8">
+        <v>10475.0</v>
+      </c>
+      <c r="AH127" t="n" s="8">
+        <v>10490.0</v>
+      </c>
+      <c r="AI127" t="n" s="8">
+        <v>10559.0</v>
+      </c>
+      <c r="AJ127"/>
     </row>
     <row r="128">
       <c r="A128" t="s" s="7">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B128" t="n" s="8">
         <v>10063.0</v>
@@ -13554,10 +14812,20 @@
       <c r="AF128" t="n" s="8">
         <v>10725.0</v>
       </c>
+      <c r="AG128" t="n" s="8">
+        <v>10794.0</v>
+      </c>
+      <c r="AH128" t="n" s="8">
+        <v>10760.0</v>
+      </c>
+      <c r="AI128" t="n" s="8">
+        <v>10830.0</v>
+      </c>
+      <c r="AJ128"/>
     </row>
     <row r="129">
       <c r="A129" t="s" s="7">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B129" t="n" s="10">
         <v>3.9</v>
@@ -13652,10 +14920,20 @@
       <c r="AF129" t="n" s="10">
         <v>5.5</v>
       </c>
+      <c r="AG129" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AH129" t="n" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="AI129" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AJ129"/>
     </row>
     <row r="130">
       <c r="A130" t="s" s="7">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B130" t="n" s="8">
         <v>2075.0</v>
@@ -13750,10 +15028,20 @@
       <c r="AF130" t="n" s="8">
         <v>3638.0</v>
       </c>
+      <c r="AG130" t="n" s="8">
+        <v>2078.0</v>
+      </c>
+      <c r="AH130" t="n" s="8">
+        <v>1643.0</v>
+      </c>
+      <c r="AI130" t="n" s="8">
+        <v>1723.0</v>
+      </c>
+      <c r="AJ130"/>
     </row>
     <row r="131">
       <c r="A131" t="s" s="7">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B131" t="n" s="8">
         <v>51310.0</v>
@@ -13848,10 +15136,20 @@
       <c r="AF131" t="n" s="8">
         <v>62300.0</v>
       </c>
+      <c r="AG131" t="n" s="8">
+        <v>64547.0</v>
+      </c>
+      <c r="AH131" t="n" s="8">
+        <v>63805.0</v>
+      </c>
+      <c r="AI131" t="n" s="8">
+        <v>65458.0</v>
+      </c>
+      <c r="AJ131"/>
     </row>
     <row r="132">
       <c r="A132" t="s" s="7">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B132" t="n" s="8">
         <v>53385.0</v>
@@ -13946,10 +15244,20 @@
       <c r="AF132" t="n" s="8">
         <v>65938.0</v>
       </c>
+      <c r="AG132" t="n" s="8">
+        <v>66625.0</v>
+      </c>
+      <c r="AH132" t="n" s="8">
+        <v>65448.0</v>
+      </c>
+      <c r="AI132" t="n" s="8">
+        <v>67181.0</v>
+      </c>
+      <c r="AJ132"/>
     </row>
     <row r="133">
       <c r="A133" t="s" s="7">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B133" t="n" s="10">
         <v>3.8</v>
@@ -14044,10 +15352,20 @@
       <c r="AF133" t="n" s="10">
         <v>4.4</v>
       </c>
+      <c r="AG133" t="n" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="AH133" t="n" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="AI133" t="n" s="10">
+        <v>2.3</v>
+      </c>
+      <c r="AJ133"/>
     </row>
     <row r="134">
       <c r="A134" t="s" s="7">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B134" t="n" s="8">
         <v>316.0</v>
@@ -14142,10 +15460,20 @@
       <c r="AF134" t="n" s="8">
         <v>433.0</v>
       </c>
+      <c r="AG134" t="n" s="8">
+        <v>272.0</v>
+      </c>
+      <c r="AH134" t="n" s="8">
+        <v>248.0</v>
+      </c>
+      <c r="AI134" t="n" s="8">
+        <v>244.0</v>
+      </c>
+      <c r="AJ134"/>
     </row>
     <row r="135">
       <c r="A135" t="s" s="7">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B135" t="n" s="8">
         <v>8096.0</v>
@@ -14240,10 +15568,20 @@
       <c r="AF135" t="n" s="8">
         <v>9472.0</v>
       </c>
+      <c r="AG135" t="n" s="8">
+        <v>9880.0</v>
+      </c>
+      <c r="AH135" t="n" s="8">
+        <v>9974.0</v>
+      </c>
+      <c r="AI135" t="n" s="8">
+        <v>10458.0</v>
+      </c>
+      <c r="AJ135"/>
     </row>
     <row r="136">
       <c r="A136" t="s" s="7">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B136" t="n" s="8">
         <v>8412.0</v>
@@ -14338,10 +15676,20 @@
       <c r="AF136" t="n" s="8">
         <v>9905.0</v>
       </c>
+      <c r="AG136" t="n" s="8">
+        <v>10152.0</v>
+      </c>
+      <c r="AH136" t="n" s="8">
+        <v>10222.0</v>
+      </c>
+      <c r="AI136" t="n" s="8">
+        <v>10702.0</v>
+      </c>
+      <c r="AJ136"/>
     </row>
     <row r="137">
       <c r="A137" t="s" s="7">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B137" t="n" s="10">
         <v>5.1</v>
@@ -14436,10 +15784,20 @@
       <c r="AF137" t="n" s="10">
         <v>6.6</v>
       </c>
+      <c r="AG137" t="n" s="10">
+        <v>4.6</v>
+      </c>
+      <c r="AH137" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AI137" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AJ137"/>
     </row>
     <row r="138">
       <c r="A138" t="s" s="7">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B138" t="n" s="8">
         <v>466.0</v>
@@ -14534,10 +15892,20 @@
       <c r="AF138" t="n" s="8">
         <v>623.0</v>
       </c>
+      <c r="AG138" t="n" s="8">
+        <v>438.0</v>
+      </c>
+      <c r="AH138" t="n" s="8">
+        <v>338.0</v>
+      </c>
+      <c r="AI138" t="n" s="8">
+        <v>328.0</v>
+      </c>
+      <c r="AJ138"/>
     </row>
     <row r="139">
       <c r="A139" t="s" s="7">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B139" t="n" s="8">
         <v>8603.0</v>
@@ -14632,10 +16000,20 @@
       <c r="AF139" t="n" s="8">
         <v>8764.0</v>
       </c>
+      <c r="AG139" t="n" s="8">
+        <v>8989.0</v>
+      </c>
+      <c r="AH139" t="n" s="8">
+        <v>8948.0</v>
+      </c>
+      <c r="AI139" t="n" s="8">
+        <v>8898.0</v>
+      </c>
+      <c r="AJ139"/>
     </row>
     <row r="140">
       <c r="A140" t="s" s="7">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B140" t="n" s="8">
         <v>9069.0</v>
@@ -14730,10 +16108,20 @@
       <c r="AF140" t="n" s="8">
         <v>9387.0</v>
       </c>
+      <c r="AG140" t="n" s="8">
+        <v>9427.0</v>
+      </c>
+      <c r="AH140" t="n" s="8">
+        <v>9286.0</v>
+      </c>
+      <c r="AI140" t="n" s="8">
+        <v>9226.0</v>
+      </c>
+      <c r="AJ140"/>
     </row>
     <row r="141">
       <c r="A141" t="s" s="7">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B141" t="n" s="10">
         <v>5.4</v>
@@ -14828,10 +16216,20 @@
       <c r="AF141" t="n" s="10">
         <v>6.1</v>
       </c>
+      <c r="AG141" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AH141" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AI141" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AJ141"/>
     </row>
     <row r="142">
       <c r="A142" t="s" s="7">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B142" t="n" s="8">
         <v>737.0</v>
@@ -14926,10 +16324,20 @@
       <c r="AF142" t="n" s="8">
         <v>900.0</v>
       </c>
+      <c r="AG142" t="n" s="8">
+        <v>557.0</v>
+      </c>
+      <c r="AH142" t="n" s="8">
+        <v>452.0</v>
+      </c>
+      <c r="AI142" t="n" s="8">
+        <v>470.0</v>
+      </c>
+      <c r="AJ142"/>
     </row>
     <row r="143">
       <c r="A143" t="s" s="7">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B143" t="n" s="8">
         <v>12966.0</v>
@@ -15024,10 +16432,20 @@
       <c r="AF143" t="n" s="8">
         <v>13951.0</v>
       </c>
+      <c r="AG143" t="n" s="8">
+        <v>14251.0</v>
+      </c>
+      <c r="AH143" t="n" s="8">
+        <v>14204.0</v>
+      </c>
+      <c r="AI143" t="n" s="8">
+        <v>14140.0</v>
+      </c>
+      <c r="AJ143"/>
     </row>
     <row r="144">
       <c r="A144" t="s" s="7">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B144" t="n" s="8">
         <v>13703.0</v>
@@ -15122,10 +16540,20 @@
       <c r="AF144" t="n" s="8">
         <v>14851.0</v>
       </c>
+      <c r="AG144" t="n" s="8">
+        <v>14808.0</v>
+      </c>
+      <c r="AH144" t="n" s="8">
+        <v>14656.0</v>
+      </c>
+      <c r="AI144" t="n" s="8">
+        <v>14610.0</v>
+      </c>
+      <c r="AJ144"/>
     </row>
     <row r="145">
       <c r="A145" t="s" s="7">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B145" t="n" s="10">
         <v>4.8</v>
@@ -15220,10 +16648,20 @@
       <c r="AF145" t="n" s="10">
         <v>6.3</v>
       </c>
+      <c r="AG145" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AH145" t="n" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AI145" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AJ145"/>
     </row>
     <row r="146">
       <c r="A146" t="s" s="7">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B146" t="n" s="8">
         <v>2017.0</v>
@@ -15318,10 +16756,20 @@
       <c r="AF146" t="n" s="8">
         <v>2584.0</v>
       </c>
+      <c r="AG146" t="n" s="8">
+        <v>1442.0</v>
+      </c>
+      <c r="AH146" t="n" s="8">
+        <v>1131.0</v>
+      </c>
+      <c r="AI146" t="n" s="8">
+        <v>1222.0</v>
+      </c>
+      <c r="AJ146"/>
     </row>
     <row r="147">
       <c r="A147" t="s" s="7">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B147" t="n" s="8">
         <v>39677.0</v>
@@ -15416,10 +16864,20 @@
       <c r="AF147" t="n" s="8">
         <v>38265.0</v>
       </c>
+      <c r="AG147" t="n" s="8">
+        <v>39556.0</v>
+      </c>
+      <c r="AH147" t="n" s="8">
+        <v>39374.0</v>
+      </c>
+      <c r="AI147" t="n" s="8">
+        <v>39480.0</v>
+      </c>
+      <c r="AJ147"/>
     </row>
     <row r="148">
       <c r="A148" t="s" s="7">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B148" t="n" s="8">
         <v>41694.0</v>
@@ -15514,10 +16972,20 @@
       <c r="AF148" t="n" s="8">
         <v>40849.0</v>
       </c>
+      <c r="AG148" t="n" s="8">
+        <v>40998.0</v>
+      </c>
+      <c r="AH148" t="n" s="8">
+        <v>40505.0</v>
+      </c>
+      <c r="AI148" t="n" s="8">
+        <v>40702.0</v>
+      </c>
+      <c r="AJ148"/>
     </row>
     <row r="149">
       <c r="A149" t="s" s="7">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B149" t="n" s="10">
         <v>4.2</v>
@@ -15612,10 +17080,20 @@
       <c r="AF149" t="n" s="10">
         <v>5.1</v>
       </c>
+      <c r="AG149" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AH149" t="n" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="AI149" t="n" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="AJ149"/>
     </row>
     <row r="150">
       <c r="A150" t="s" s="7">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B150" t="n" s="8">
         <v>2590.0</v>
@@ -15710,10 +17188,20 @@
       <c r="AF150" t="n" s="8">
         <v>3722.0</v>
       </c>
+      <c r="AG150" t="n" s="8">
+        <v>2252.0</v>
+      </c>
+      <c r="AH150" t="n" s="8">
+        <v>1832.0</v>
+      </c>
+      <c r="AI150" t="n" s="8">
+        <v>1995.0</v>
+      </c>
+      <c r="AJ150"/>
     </row>
     <row r="151">
       <c r="A151" t="s" s="7">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B151" t="n" s="8">
         <v>59716.0</v>
@@ -15808,10 +17296,20 @@
       <c r="AF151" t="n" s="8">
         <v>69400.0</v>
       </c>
+      <c r="AG151" t="n" s="8">
+        <v>71251.0</v>
+      </c>
+      <c r="AH151" t="n" s="8">
+        <v>70710.0</v>
+      </c>
+      <c r="AI151" t="n" s="8">
+        <v>70751.0</v>
+      </c>
+      <c r="AJ151"/>
     </row>
     <row r="152">
       <c r="A152" t="s" s="7">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B152" t="n" s="8">
         <v>62306.0</v>
@@ -15906,10 +17404,20 @@
       <c r="AF152" t="n" s="8">
         <v>73122.0</v>
       </c>
+      <c r="AG152" t="n" s="8">
+        <v>73503.0</v>
+      </c>
+      <c r="AH152" t="n" s="8">
+        <v>72542.0</v>
+      </c>
+      <c r="AI152" t="n" s="8">
+        <v>72746.0</v>
+      </c>
+      <c r="AJ152"/>
     </row>
     <row r="153">
       <c r="A153" t="s" s="7">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B153" t="n" s="10">
         <v>7.1</v>
@@ -16004,10 +17512,20 @@
       <c r="AF153" t="n" s="10">
         <v>8.0</v>
       </c>
+      <c r="AG153" t="n" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="AH153" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AI153" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AJ153"/>
     </row>
     <row r="154">
       <c r="A154" t="s" s="7">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B154" t="n" s="8">
         <v>1364.0</v>
@@ -16102,10 +17620,20 @@
       <c r="AF154" t="n" s="8">
         <v>1571.0</v>
       </c>
+      <c r="AG154" t="n" s="8">
+        <v>871.0</v>
+      </c>
+      <c r="AH154" t="n" s="8">
+        <v>718.0</v>
+      </c>
+      <c r="AI154" t="n" s="8">
+        <v>763.0</v>
+      </c>
+      <c r="AJ154"/>
     </row>
     <row r="155">
       <c r="A155" t="s" s="7">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B155" t="n" s="8">
         <v>17896.0</v>
@@ -16200,10 +17728,20 @@
       <c r="AF155" t="n" s="8">
         <v>18164.0</v>
       </c>
+      <c r="AG155" t="n" s="8">
+        <v>18584.0</v>
+      </c>
+      <c r="AH155" t="n" s="8">
+        <v>18388.0</v>
+      </c>
+      <c r="AI155" t="n" s="8">
+        <v>18293.0</v>
+      </c>
+      <c r="AJ155"/>
     </row>
     <row r="156">
       <c r="A156" t="s" s="7">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B156" t="n" s="8">
         <v>19260.0</v>
@@ -16298,10 +17836,20 @@
       <c r="AF156" t="n" s="8">
         <v>19735.0</v>
       </c>
+      <c r="AG156" t="n" s="8">
+        <v>19455.0</v>
+      </c>
+      <c r="AH156" t="n" s="8">
+        <v>19106.0</v>
+      </c>
+      <c r="AI156" t="n" s="8">
+        <v>19056.0</v>
+      </c>
+      <c r="AJ156"/>
     </row>
     <row r="157">
       <c r="A157" t="s" s="7">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B157" t="n" s="10">
         <v>6.6</v>
@@ -16396,10 +17944,20 @@
       <c r="AF157" t="n" s="10">
         <v>6.9</v>
       </c>
+      <c r="AG157" t="n" s="10">
+        <v>4.6</v>
+      </c>
+      <c r="AH157" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AI157" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AJ157"/>
     </row>
     <row r="158">
       <c r="A158" t="s" s="7">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B158" t="n" s="8">
         <v>398.0</v>
@@ -16494,10 +18052,20 @@
       <c r="AF158" t="n" s="8">
         <v>532.0</v>
       </c>
+      <c r="AG158" t="n" s="8">
+        <v>354.0</v>
+      </c>
+      <c r="AH158" t="n" s="8">
+        <v>273.0</v>
+      </c>
+      <c r="AI158" t="n" s="8">
+        <v>290.0</v>
+      </c>
+      <c r="AJ158"/>
     </row>
     <row r="159">
       <c r="A159" t="s" s="7">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B159" t="n" s="8">
         <v>5620.0</v>
@@ -16592,10 +18160,20 @@
       <c r="AF159" t="n" s="8">
         <v>7215.0</v>
       </c>
+      <c r="AG159" t="n" s="8">
+        <v>7409.0</v>
+      </c>
+      <c r="AH159" t="n" s="8">
+        <v>7409.0</v>
+      </c>
+      <c r="AI159" t="n" s="8">
+        <v>7471.0</v>
+      </c>
+      <c r="AJ159"/>
     </row>
     <row r="160">
       <c r="A160" t="s" s="7">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B160" t="n" s="8">
         <v>6018.0</v>
@@ -16690,10 +18268,20 @@
       <c r="AF160" t="n" s="8">
         <v>7747.0</v>
       </c>
+      <c r="AG160" t="n" s="8">
+        <v>7763.0</v>
+      </c>
+      <c r="AH160" t="n" s="8">
+        <v>7682.0</v>
+      </c>
+      <c r="AI160" t="n" s="8">
+        <v>7761.0</v>
+      </c>
+      <c r="AJ160"/>
     </row>
     <row r="161">
       <c r="A161" t="s" s="7">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B161" t="n" s="10">
         <v>9.2</v>
@@ -16788,10 +18376,20 @@
       <c r="AF161" t="n" s="10">
         <v>15.7</v>
       </c>
+      <c r="AG161" t="n" s="10">
+        <v>8.5</v>
+      </c>
+      <c r="AH161" t="n" s="10">
+        <v>5.4</v>
+      </c>
+      <c r="AI161" t="n" s="10">
+        <v>6.1</v>
+      </c>
+      <c r="AJ161"/>
     </row>
     <row r="162">
       <c r="A162" t="s" s="7">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B162" t="n" s="8">
         <v>107.0</v>
@@ -16886,10 +18484,20 @@
       <c r="AF162" t="n" s="8">
         <v>262.0</v>
       </c>
+      <c r="AG162" t="n" s="8">
+        <v>134.0</v>
+      </c>
+      <c r="AH162" t="n" s="8">
+        <v>82.0</v>
+      </c>
+      <c r="AI162" t="n" s="8">
+        <v>93.0</v>
+      </c>
+      <c r="AJ162"/>
     </row>
     <row r="163">
       <c r="A163" t="s" s="7">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B163" t="n" s="8">
         <v>1059.0</v>
@@ -16984,10 +18592,20 @@
       <c r="AF163" t="n" s="8">
         <v>1403.0</v>
       </c>
+      <c r="AG163" t="n" s="8">
+        <v>1442.0</v>
+      </c>
+      <c r="AH163" t="n" s="8">
+        <v>1427.0</v>
+      </c>
+      <c r="AI163" t="n" s="8">
+        <v>1422.0</v>
+      </c>
+      <c r="AJ163"/>
     </row>
     <row r="164">
       <c r="A164" t="s" s="7">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B164" t="n" s="8">
         <v>1166.0</v>
@@ -17082,10 +18700,20 @@
       <c r="AF164" t="n" s="8">
         <v>1665.0</v>
       </c>
+      <c r="AG164" t="n" s="8">
+        <v>1576.0</v>
+      </c>
+      <c r="AH164" t="n" s="8">
+        <v>1509.0</v>
+      </c>
+      <c r="AI164" t="n" s="8">
+        <v>1515.0</v>
+      </c>
+      <c r="AJ164"/>
     </row>
     <row r="165">
       <c r="A165" t="s" s="7">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B165" t="n" s="10">
         <v>4.6</v>
@@ -17180,10 +18808,20 @@
       <c r="AF165" t="n" s="10">
         <v>8.4</v>
       </c>
+      <c r="AG165" t="n" s="10">
+        <v>5.4</v>
+      </c>
+      <c r="AH165" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AI165" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AJ165"/>
     </row>
     <row r="166">
       <c r="A166" t="s" s="7">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B166" t="n" s="8">
         <v>22121.0</v>
@@ -17278,10 +18916,20 @@
       <c r="AF166" t="n" s="8">
         <v>39470.0</v>
       </c>
+      <c r="AG166" t="n" s="8">
+        <v>25356.0</v>
+      </c>
+      <c r="AH166" t="n" s="8">
+        <v>16860.0</v>
+      </c>
+      <c r="AI166" t="n" s="8">
+        <v>17557.0</v>
+      </c>
+      <c r="AJ166"/>
     </row>
     <row r="167">
       <c r="A167" t="s" s="7">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B167" t="n" s="8">
         <v>454999.0</v>
@@ -17376,10 +19024,20 @@
       <c r="AF167" t="n" s="8">
         <v>428775.0</v>
       </c>
+      <c r="AG167" t="n" s="8">
+        <v>440277.0</v>
+      </c>
+      <c r="AH167" t="n" s="8">
+        <v>444682.0</v>
+      </c>
+      <c r="AI167" t="n" s="8">
+        <v>448733.0</v>
+      </c>
+      <c r="AJ167"/>
     </row>
     <row r="168">
       <c r="A168" t="s" s="7">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B168" t="n" s="8">
         <v>477120.0</v>
@@ -17474,10 +19132,20 @@
       <c r="AF168" t="n" s="8">
         <v>468245.0</v>
       </c>
+      <c r="AG168" t="n" s="8">
+        <v>465633.0</v>
+      </c>
+      <c r="AH168" t="n" s="8">
+        <v>461542.0</v>
+      </c>
+      <c r="AI168" t="n" s="8">
+        <v>466290.0</v>
+      </c>
+      <c r="AJ168"/>
     </row>
     <row r="169">
       <c r="A169" t="s" s="7">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B169" t="n" s="10">
         <v>5.1</v>
@@ -17572,10 +19240,20 @@
       <c r="AF169" t="n" s="10">
         <v>5.7</v>
       </c>
+      <c r="AG169" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AH169" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AI169" t="n" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="AJ169"/>
     </row>
     <row r="170">
       <c r="A170" t="s" s="7">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B170" t="n" s="8">
         <v>921.0</v>
@@ -17670,10 +19348,20 @@
       <c r="AF170" t="n" s="8">
         <v>1341.0</v>
       </c>
+      <c r="AG170" t="n" s="8">
+        <v>786.0</v>
+      </c>
+      <c r="AH170" t="n" s="8">
+        <v>619.0</v>
+      </c>
+      <c r="AI170" t="n" s="8">
+        <v>634.0</v>
+      </c>
+      <c r="AJ170"/>
     </row>
     <row r="171">
       <c r="A171" t="s" s="7">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B171" t="n" s="8">
         <v>17269.0</v>
@@ -17768,10 +19456,20 @@
       <c r="AF171" t="n" s="8">
         <v>22256.0</v>
       </c>
+      <c r="AG171" t="n" s="8">
+        <v>22806.0</v>
+      </c>
+      <c r="AH171" t="n" s="8">
+        <v>22754.0</v>
+      </c>
+      <c r="AI171" t="n" s="8">
+        <v>23029.0</v>
+      </c>
+      <c r="AJ171"/>
     </row>
     <row r="172">
       <c r="A172" t="s" s="7">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B172" t="n" s="8">
         <v>18190.0</v>
@@ -17866,10 +19564,20 @@
       <c r="AF172" t="n" s="8">
         <v>23597.0</v>
       </c>
+      <c r="AG172" t="n" s="8">
+        <v>23592.0</v>
+      </c>
+      <c r="AH172" t="n" s="8">
+        <v>23373.0</v>
+      </c>
+      <c r="AI172" t="n" s="8">
+        <v>23663.0</v>
+      </c>
+      <c r="AJ172"/>
     </row>
     <row r="173">
       <c r="A173" t="s" s="7">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B173" t="n" s="10">
         <v>7.9</v>
@@ -17964,10 +19672,20 @@
       <c r="AF173" t="n" s="10">
         <v>6.4</v>
       </c>
+      <c r="AG173" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AH173" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AI173" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AJ173"/>
     </row>
     <row r="174">
       <c r="A174" t="s" s="7">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B174" t="n" s="8">
         <v>1145.0</v>
@@ -18062,10 +19780,20 @@
       <c r="AF174" t="n" s="8">
         <v>1323.0</v>
       </c>
+      <c r="AG174" t="n" s="8">
+        <v>792.0</v>
+      </c>
+      <c r="AH174" t="n" s="8">
+        <v>646.0</v>
+      </c>
+      <c r="AI174" t="n" s="8">
+        <v>677.0</v>
+      </c>
+      <c r="AJ174"/>
     </row>
     <row r="175">
       <c r="A175" t="s" s="7">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B175" t="n" s="8">
         <v>13376.0</v>
@@ -18160,10 +19888,20 @@
       <c r="AF175" t="n" s="8">
         <v>19316.0</v>
       </c>
+      <c r="AG175" t="n" s="8">
+        <v>19854.0</v>
+      </c>
+      <c r="AH175" t="n" s="8">
+        <v>19878.0</v>
+      </c>
+      <c r="AI175" t="n" s="8">
+        <v>20076.0</v>
+      </c>
+      <c r="AJ175"/>
     </row>
     <row r="176">
       <c r="A176" t="s" s="7">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B176" t="n" s="8">
         <v>14521.0</v>
@@ -18258,10 +19996,20 @@
       <c r="AF176" t="n" s="8">
         <v>20639.0</v>
       </c>
+      <c r="AG176" t="n" s="8">
+        <v>20646.0</v>
+      </c>
+      <c r="AH176" t="n" s="8">
+        <v>20524.0</v>
+      </c>
+      <c r="AI176" t="n" s="8">
+        <v>20753.0</v>
+      </c>
+      <c r="AJ176"/>
     </row>
     <row r="177">
       <c r="A177" t="s" s="7">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B177" t="n" s="10">
         <v>4.5</v>
@@ -18356,10 +20104,20 @@
       <c r="AF177" t="n" s="10">
         <v>7.4</v>
       </c>
+      <c r="AG177" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AH177" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AI177" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AJ177"/>
     </row>
     <row r="178">
       <c r="A178" t="s" s="7">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B178" t="n" s="8">
         <v>719.0</v>
@@ -18454,10 +20212,20 @@
       <c r="AF178" t="n" s="8">
         <v>1332.0</v>
       </c>
+      <c r="AG178" t="n" s="8">
+        <v>799.0</v>
+      </c>
+      <c r="AH178" t="n" s="8">
+        <v>596.0</v>
+      </c>
+      <c r="AI178" t="n" s="8">
+        <v>626.0</v>
+      </c>
+      <c r="AJ178"/>
     </row>
     <row r="179">
       <c r="A179" t="s" s="7">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B179" t="n" s="8">
         <v>15322.0</v>
@@ -18552,10 +20320,20 @@
       <c r="AF179" t="n" s="8">
         <v>16727.0</v>
       </c>
+      <c r="AG179" t="n" s="8">
+        <v>17332.0</v>
+      </c>
+      <c r="AH179" t="n" s="8">
+        <v>17429.0</v>
+      </c>
+      <c r="AI179" t="n" s="8">
+        <v>17563.0</v>
+      </c>
+      <c r="AJ179"/>
     </row>
     <row r="180">
       <c r="A180" t="s" s="7">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B180" t="n" s="8">
         <v>16041.0</v>
@@ -18650,10 +20428,20 @@
       <c r="AF180" t="n" s="8">
         <v>18059.0</v>
       </c>
+      <c r="AG180" t="n" s="8">
+        <v>18131.0</v>
+      </c>
+      <c r="AH180" t="n" s="8">
+        <v>18025.0</v>
+      </c>
+      <c r="AI180" t="n" s="8">
+        <v>18189.0</v>
+      </c>
+      <c r="AJ180"/>
     </row>
     <row r="181">
       <c r="A181" t="s" s="7">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B181" t="n" s="10">
         <v>3.2</v>
@@ -18748,10 +20536,20 @@
       <c r="AF181" t="n" s="10">
         <v>5.6</v>
       </c>
+      <c r="AG181" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AH181" t="n" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="AI181" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AJ181"/>
     </row>
     <row r="182">
       <c r="A182" t="s" s="7">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B182" t="n" s="8">
         <v>2718.0</v>
@@ -18846,10 +20644,20 @@
       <c r="AF182" t="n" s="8">
         <v>5839.0</v>
       </c>
+      <c r="AG182" t="n" s="8">
+        <v>3347.0</v>
+      </c>
+      <c r="AH182" t="n" s="8">
+        <v>2612.0</v>
+      </c>
+      <c r="AI182" t="n" s="8">
+        <v>2733.0</v>
+      </c>
+      <c r="AJ182"/>
     </row>
     <row r="183">
       <c r="A183" t="s" s="7">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B183" t="n" s="8">
         <v>81848.0</v>
@@ -18944,10 +20752,20 @@
       <c r="AF183" t="n" s="8">
         <v>98119.0</v>
       </c>
+      <c r="AG183" t="n" s="8">
+        <v>100788.0</v>
+      </c>
+      <c r="AH183" t="n" s="8">
+        <v>102060.0</v>
+      </c>
+      <c r="AI183" t="n" s="8">
+        <v>103184.0</v>
+      </c>
+      <c r="AJ183"/>
     </row>
     <row r="184">
       <c r="A184" t="s" s="7">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B184" t="n" s="8">
         <v>84566.0</v>
@@ -19042,10 +20860,20 @@
       <c r="AF184" t="n" s="8">
         <v>103958.0</v>
       </c>
+      <c r="AG184" t="n" s="8">
+        <v>104135.0</v>
+      </c>
+      <c r="AH184" t="n" s="8">
+        <v>104672.0</v>
+      </c>
+      <c r="AI184" t="n" s="8">
+        <v>105917.0</v>
+      </c>
+      <c r="AJ184"/>
     </row>
     <row r="185">
       <c r="A185" t="s" s="7">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B185" t="n" s="10">
         <v>3.2</v>
@@ -19140,10 +20968,20 @@
       <c r="AF185" t="n" s="10">
         <v>5.5</v>
       </c>
+      <c r="AG185" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AH185" t="n" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="AI185" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AJ185"/>
     </row>
     <row r="186">
       <c r="A186" t="s" s="7">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B186" t="n" s="8">
         <v>1304.0</v>
@@ -19238,10 +21076,20 @@
       <c r="AF186" t="n" s="8">
         <v>2701.0</v>
       </c>
+      <c r="AG186" t="n" s="8">
+        <v>1536.0</v>
+      </c>
+      <c r="AH186" t="n" s="8">
+        <v>1195.0</v>
+      </c>
+      <c r="AI186" t="n" s="8">
+        <v>1290.0</v>
+      </c>
+      <c r="AJ186"/>
     </row>
     <row r="187">
       <c r="A187" t="s" s="7">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B187" t="n" s="8">
         <v>40032.0</v>
@@ -19336,10 +21184,20 @@
       <c r="AF187" t="n" s="8">
         <v>46181.0</v>
       </c>
+      <c r="AG187" t="n" s="8">
+        <v>47504.0</v>
+      </c>
+      <c r="AH187" t="n" s="8">
+        <v>47855.0</v>
+      </c>
+      <c r="AI187" t="n" s="8">
+        <v>48253.0</v>
+      </c>
+      <c r="AJ187"/>
     </row>
     <row r="188">
       <c r="A188" t="s" s="7">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B188" t="n" s="8">
         <v>41336.0</v>
@@ -19434,10 +21292,20 @@
       <c r="AF188" t="n" s="8">
         <v>48882.0</v>
       </c>
+      <c r="AG188" t="n" s="8">
+        <v>49040.0</v>
+      </c>
+      <c r="AH188" t="n" s="8">
+        <v>49050.0</v>
+      </c>
+      <c r="AI188" t="n" s="8">
+        <v>49543.0</v>
+      </c>
+      <c r="AJ188"/>
     </row>
     <row r="189">
       <c r="A189" t="s" s="7">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B189" t="n" s="10">
         <v>4.7</v>
@@ -19532,10 +21400,20 @@
       <c r="AF189" t="n" s="10">
         <v>6.0</v>
       </c>
+      <c r="AG189" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AH189" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AI189" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AJ189"/>
     </row>
     <row r="190">
       <c r="A190" t="s" s="7">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B190" t="n" s="8">
         <v>162.0</v>
@@ -19630,10 +21508,20 @@
       <c r="AF190" t="n" s="8">
         <v>248.0</v>
       </c>
+      <c r="AG190" t="n" s="8">
+        <v>142.0</v>
+      </c>
+      <c r="AH190" t="n" s="8">
+        <v>127.0</v>
+      </c>
+      <c r="AI190" t="n" s="8">
+        <v>130.0</v>
+      </c>
+      <c r="AJ190"/>
     </row>
     <row r="191">
       <c r="A191" t="s" s="7">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B191" t="n" s="8">
         <v>3254.0</v>
@@ -19728,10 +21616,20 @@
       <c r="AF191" t="n" s="8">
         <v>3886.0</v>
       </c>
+      <c r="AG191" t="n" s="8">
+        <v>3926.0</v>
+      </c>
+      <c r="AH191" t="n" s="8">
+        <v>3932.0</v>
+      </c>
+      <c r="AI191" t="n" s="8">
+        <v>4028.0</v>
+      </c>
+      <c r="AJ191"/>
     </row>
     <row r="192">
       <c r="A192" t="s" s="7">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B192" t="n" s="8">
         <v>3416.0</v>
@@ -19826,10 +21724,20 @@
       <c r="AF192" t="n" s="8">
         <v>4134.0</v>
       </c>
+      <c r="AG192" t="n" s="8">
+        <v>4068.0</v>
+      </c>
+      <c r="AH192" t="n" s="8">
+        <v>4059.0</v>
+      </c>
+      <c r="AI192" t="n" s="8">
+        <v>4158.0</v>
+      </c>
+      <c r="AJ192"/>
     </row>
     <row r="193">
       <c r="A193" t="s" s="7">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B193" t="n" s="10">
         <v>3.6</v>
@@ -19924,10 +21832,20 @@
       <c r="AF193" t="n" s="10">
         <v>7.1</v>
       </c>
+      <c r="AG193" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AH193" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AI193" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AJ193"/>
     </row>
     <row r="194">
       <c r="A194" t="s" s="7">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B194" t="n" s="8">
         <v>664.0</v>
@@ -20022,10 +21940,20 @@
       <c r="AF194" t="n" s="8">
         <v>1781.0</v>
       </c>
+      <c r="AG194" t="n" s="8">
+        <v>889.0</v>
+      </c>
+      <c r="AH194" t="n" s="8">
+        <v>800.0</v>
+      </c>
+      <c r="AI194" t="n" s="8">
+        <v>866.0</v>
+      </c>
+      <c r="AJ194"/>
     </row>
     <row r="195">
       <c r="A195" t="s" s="7">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B195" t="n" s="8">
         <v>17545.0</v>
@@ -20120,10 +22048,20 @@
       <c r="AF195" t="n" s="8">
         <v>23192.0</v>
       </c>
+      <c r="AG195" t="n" s="8">
+        <v>23438.0</v>
+      </c>
+      <c r="AH195" t="n" s="8">
+        <v>23687.0</v>
+      </c>
+      <c r="AI195" t="n" s="8">
+        <v>24010.0</v>
+      </c>
+      <c r="AJ195"/>
     </row>
     <row r="196">
       <c r="A196" t="s" s="7">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B196" t="n" s="8">
         <v>18209.0</v>
@@ -20218,10 +22156,20 @@
       <c r="AF196" t="n" s="8">
         <v>24973.0</v>
       </c>
+      <c r="AG196" t="n" s="8">
+        <v>24327.0</v>
+      </c>
+      <c r="AH196" t="n" s="8">
+        <v>24487.0</v>
+      </c>
+      <c r="AI196" t="n" s="8">
+        <v>24876.0</v>
+      </c>
+      <c r="AJ196"/>
     </row>
     <row r="197">
       <c r="A197" t="s" s="7">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B197" t="n" s="10">
         <v>5.9</v>
@@ -20316,10 +22264,20 @@
       <c r="AF197" t="n" s="10">
         <v>7.3</v>
       </c>
+      <c r="AG197" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AH197" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AI197" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AJ197"/>
     </row>
     <row r="198">
       <c r="A198" t="s" s="7">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B198" t="n" s="8">
         <v>1012.0</v>
@@ -20414,10 +22372,20 @@
       <c r="AF198" t="n" s="8">
         <v>1810.0</v>
       </c>
+      <c r="AG198" t="n" s="8">
+        <v>1072.0</v>
+      </c>
+      <c r="AH198" t="n" s="8">
+        <v>947.0</v>
+      </c>
+      <c r="AI198" t="n" s="8">
+        <v>1040.0</v>
+      </c>
+      <c r="AJ198"/>
     </row>
     <row r="199">
       <c r="A199" t="s" s="7">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B199" t="n" s="8">
         <v>16206.0</v>
@@ -20512,10 +22480,20 @@
       <c r="AF199" t="n" s="8">
         <v>22928.0</v>
       </c>
+      <c r="AG199" t="n" s="8">
+        <v>23549.0</v>
+      </c>
+      <c r="AH199" t="n" s="8">
+        <v>23666.0</v>
+      </c>
+      <c r="AI199" t="n" s="8">
+        <v>24151.0</v>
+      </c>
+      <c r="AJ199"/>
     </row>
     <row r="200">
       <c r="A200" t="s" s="7">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B200" t="n" s="8">
         <v>17218.0</v>
@@ -20610,10 +22588,20 @@
       <c r="AF200" t="n" s="8">
         <v>24738.0</v>
       </c>
+      <c r="AG200" t="n" s="8">
+        <v>24621.0</v>
+      </c>
+      <c r="AH200" t="n" s="8">
+        <v>24613.0</v>
+      </c>
+      <c r="AI200" t="n" s="8">
+        <v>25191.0</v>
+      </c>
+      <c r="AJ200"/>
     </row>
     <row r="201">
       <c r="A201" t="s" s="7">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B201" t="n" s="10">
         <v>3.7</v>
@@ -20708,10 +22696,20 @@
       <c r="AF201" t="n" s="10">
         <v>5.5</v>
       </c>
+      <c r="AG201" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AH201" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AI201" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AJ201"/>
     </row>
     <row r="202">
       <c r="A202" t="s" s="7">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B202" t="n" s="8">
         <v>1203.0</v>
@@ -20806,10 +22804,20 @@
       <c r="AF202" t="n" s="8">
         <v>2092.0</v>
       </c>
+      <c r="AG202" t="n" s="8">
+        <v>1371.0</v>
+      </c>
+      <c r="AH202" t="n" s="8">
+        <v>1101.0</v>
+      </c>
+      <c r="AI202" t="n" s="8">
+        <v>1123.0</v>
+      </c>
+      <c r="AJ202"/>
     </row>
     <row r="203">
       <c r="A203" t="s" s="7">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B203" t="n" s="8">
         <v>31354.0</v>
@@ -20904,10 +22912,20 @@
       <c r="AF203" t="n" s="8">
         <v>35783.0</v>
       </c>
+      <c r="AG203" t="n" s="8">
+        <v>36569.0</v>
+      </c>
+      <c r="AH203" t="n" s="8">
+        <v>36576.0</v>
+      </c>
+      <c r="AI203" t="n" s="8">
+        <v>36695.0</v>
+      </c>
+      <c r="AJ203"/>
     </row>
     <row r="204">
       <c r="A204" t="s" s="7">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B204" t="n" s="8">
         <v>32557.0</v>
@@ -21002,10 +23020,20 @@
       <c r="AF204" t="n" s="8">
         <v>37875.0</v>
       </c>
+      <c r="AG204" t="n" s="8">
+        <v>37940.0</v>
+      </c>
+      <c r="AH204" t="n" s="8">
+        <v>37677.0</v>
+      </c>
+      <c r="AI204" t="n" s="8">
+        <v>37818.0</v>
+      </c>
+      <c r="AJ204"/>
     </row>
     <row r="205">
       <c r="A205" t="s" s="7">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B205" t="n" s="10">
         <v>5.3</v>
@@ -21100,10 +23128,20 @@
       <c r="AF205" t="n" s="10">
         <v>6.9</v>
       </c>
+      <c r="AG205" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AH205" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AI205" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AJ205"/>
     </row>
     <row r="206">
       <c r="A206" t="s" s="7">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B206" t="n" s="8">
         <v>392.0</v>
@@ -21198,10 +23236,20 @@
       <c r="AF206" t="n" s="8">
         <v>436.0</v>
       </c>
+      <c r="AG206" t="n" s="8">
+        <v>271.0</v>
+      </c>
+      <c r="AH206" t="n" s="8">
+        <v>212.0</v>
+      </c>
+      <c r="AI206" t="n" s="8">
+        <v>215.0</v>
+      </c>
+      <c r="AJ206"/>
     </row>
     <row r="207">
       <c r="A207" t="s" s="7">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B207" t="n" s="8">
         <v>7050.0</v>
@@ -21296,10 +23344,20 @@
       <c r="AF207" t="n" s="8">
         <v>5843.0</v>
       </c>
+      <c r="AG207" t="n" s="8">
+        <v>6010.0</v>
+      </c>
+      <c r="AH207" t="n" s="8">
+        <v>6074.0</v>
+      </c>
+      <c r="AI207" t="n" s="8">
+        <v>6174.0</v>
+      </c>
+      <c r="AJ207"/>
     </row>
     <row r="208">
       <c r="A208" t="s" s="7">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B208" t="n" s="8">
         <v>7442.0</v>
@@ -21394,10 +23452,20 @@
       <c r="AF208" t="n" s="8">
         <v>6279.0</v>
       </c>
+      <c r="AG208" t="n" s="8">
+        <v>6281.0</v>
+      </c>
+      <c r="AH208" t="n" s="8">
+        <v>6286.0</v>
+      </c>
+      <c r="AI208" t="n" s="8">
+        <v>6389.0</v>
+      </c>
+      <c r="AJ208"/>
     </row>
     <row r="209">
       <c r="A209" t="s" s="7">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B209" t="n" s="10">
         <v>4.6</v>
@@ -21492,10 +23560,20 @@
       <c r="AF209" t="n" s="10">
         <v>7.4</v>
       </c>
+      <c r="AG209" t="n" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="AH209" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AI209" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AJ209"/>
     </row>
     <row r="210">
       <c r="A210" t="s" s="7">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B210" t="n" s="8">
         <v>4159.0</v>
@@ -21590,10 +23668,20 @@
       <c r="AF210" t="n" s="8">
         <v>7306.0</v>
       </c>
+      <c r="AG210" t="n" s="8">
+        <v>4705.0</v>
+      </c>
+      <c r="AH210" t="n" s="8">
+        <v>3454.0</v>
+      </c>
+      <c r="AI210" t="n" s="8">
+        <v>3549.0</v>
+      </c>
+      <c r="AJ210"/>
     </row>
     <row r="211">
       <c r="A211" t="s" s="7">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B211" t="n" s="8">
         <v>86019.0</v>
@@ -21688,10 +23776,20 @@
       <c r="AF211" t="n" s="8">
         <v>91061.0</v>
       </c>
+      <c r="AG211" t="n" s="8">
+        <v>93931.0</v>
+      </c>
+      <c r="AH211" t="n" s="8">
+        <v>95384.0</v>
+      </c>
+      <c r="AI211" t="n" s="8">
+        <v>96372.0</v>
+      </c>
+      <c r="AJ211"/>
     </row>
     <row r="212">
       <c r="A212" t="s" s="7">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B212" t="n" s="8">
         <v>90178.0</v>
@@ -21786,10 +23884,20 @@
       <c r="AF212" t="n" s="8">
         <v>98367.0</v>
       </c>
+      <c r="AG212" t="n" s="8">
+        <v>98636.0</v>
+      </c>
+      <c r="AH212" t="n" s="8">
+        <v>98838.0</v>
+      </c>
+      <c r="AI212" t="n" s="8">
+        <v>99921.0</v>
+      </c>
+      <c r="AJ212"/>
     </row>
     <row r="213">
       <c r="A213" t="s" s="7">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B213" t="n" s="10">
         <v>4.1</v>
@@ -21884,10 +23992,20 @@
       <c r="AF213" t="n" s="10">
         <v>5.2</v>
       </c>
+      <c r="AG213" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AH213" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AI213" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AJ213"/>
     </row>
     <row r="214">
       <c r="A214" t="s" s="7">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B214" t="n" s="8">
         <v>354.0</v>
@@ -21982,10 +24100,20 @@
       <c r="AF214" t="n" s="8">
         <v>475.0</v>
       </c>
+      <c r="AG214" t="n" s="8">
+        <v>324.0</v>
+      </c>
+      <c r="AH214" t="n" s="8">
+        <v>253.0</v>
+      </c>
+      <c r="AI214" t="n" s="8">
+        <v>266.0</v>
+      </c>
+      <c r="AJ214"/>
     </row>
     <row r="215">
       <c r="A215" t="s" s="7">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B215" t="n" s="8">
         <v>8349.0</v>
@@ -22080,10 +24208,20 @@
       <c r="AF215" t="n" s="8">
         <v>8637.0</v>
       </c>
+      <c r="AG215" t="n" s="8">
+        <v>8650.0</v>
+      </c>
+      <c r="AH215" t="n" s="8">
+        <v>8598.0</v>
+      </c>
+      <c r="AI215" t="n" s="8">
+        <v>8551.0</v>
+      </c>
+      <c r="AJ215"/>
     </row>
     <row r="216">
       <c r="A216" t="s" s="7">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B216" t="n" s="8">
         <v>8703.0</v>
@@ -22178,10 +24316,20 @@
       <c r="AF216" t="n" s="8">
         <v>9112.0</v>
       </c>
+      <c r="AG216" t="n" s="8">
+        <v>8974.0</v>
+      </c>
+      <c r="AH216" t="n" s="8">
+        <v>8851.0</v>
+      </c>
+      <c r="AI216" t="n" s="8">
+        <v>8817.0</v>
+      </c>
+      <c r="AJ216"/>
     </row>
     <row r="217">
       <c r="A217" t="s" s="7">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B217" t="n" s="10">
         <v>5.5</v>
@@ -22276,10 +24424,20 @@
       <c r="AF217" t="n" s="10">
         <v>7.3</v>
       </c>
+      <c r="AG217" t="n" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="AH217" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AI217" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AJ217"/>
     </row>
     <row r="218">
       <c r="A218" t="s" s="7">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B218" t="n" s="8">
         <v>3963.0</v>
@@ -22374,10 +24532,20 @@
       <c r="AF218" t="n" s="8">
         <v>6223.0</v>
       </c>
+      <c r="AG218" t="n" s="8">
+        <v>3910.0</v>
+      </c>
+      <c r="AH218" t="n" s="8">
+        <v>2949.0</v>
+      </c>
+      <c r="AI218" t="n" s="8">
+        <v>3001.0</v>
+      </c>
+      <c r="AJ218"/>
     </row>
     <row r="219">
       <c r="A219" t="s" s="7">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B219" t="n" s="8">
         <v>68536.0</v>
@@ -22472,10 +24640,20 @@
       <c r="AF219" t="n" s="8">
         <v>79608.0</v>
       </c>
+      <c r="AG219" t="n" s="8">
+        <v>82262.0</v>
+      </c>
+      <c r="AH219" t="n" s="8">
+        <v>83263.0</v>
+      </c>
+      <c r="AI219" t="n" s="8">
+        <v>85554.0</v>
+      </c>
+      <c r="AJ219"/>
     </row>
     <row r="220">
       <c r="A220" t="s" s="7">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B220" t="n" s="8">
         <v>72499.0</v>
@@ -22570,10 +24748,20 @@
       <c r="AF220" t="n" s="8">
         <v>85831.0</v>
       </c>
+      <c r="AG220" t="n" s="8">
+        <v>86172.0</v>
+      </c>
+      <c r="AH220" t="n" s="8">
+        <v>86212.0</v>
+      </c>
+      <c r="AI220" t="n" s="8">
+        <v>88555.0</v>
+      </c>
+      <c r="AJ220"/>
     </row>
     <row r="221">
       <c r="A221" t="s" s="7">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B221" t="n" s="10">
         <v>8.1</v>
@@ -22668,10 +24856,20 @@
       <c r="AF221" t="n" s="10">
         <v>6.8</v>
       </c>
+      <c r="AG221" t="n" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="AH221" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AI221" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AJ221"/>
     </row>
     <row r="222">
       <c r="A222" t="s" s="7">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B222" t="n" s="8">
         <v>567.0</v>
@@ -22766,10 +24964,20 @@
       <c r="AF222" t="n" s="8">
         <v>450.0</v>
       </c>
+      <c r="AG222" t="n" s="8">
+        <v>294.0</v>
+      </c>
+      <c r="AH222" t="n" s="8">
+        <v>241.0</v>
+      </c>
+      <c r="AI222" t="n" s="8">
+        <v>238.0</v>
+      </c>
+      <c r="AJ222"/>
     </row>
     <row r="223">
       <c r="A223" t="s" s="7">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B223" t="n" s="8">
         <v>6429.0</v>
@@ -22864,10 +25072,20 @@
       <c r="AF223" t="n" s="8">
         <v>6165.0</v>
       </c>
+      <c r="AG223" t="n" s="8">
+        <v>6258.0</v>
+      </c>
+      <c r="AH223" t="n" s="8">
+        <v>6298.0</v>
+      </c>
+      <c r="AI223" t="n" s="8">
+        <v>6146.0</v>
+      </c>
+      <c r="AJ223"/>
     </row>
     <row r="224">
       <c r="A224" t="s" s="7">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B224" t="n" s="8">
         <v>6996.0</v>
@@ -22962,10 +25180,20 @@
       <c r="AF224" t="n" s="8">
         <v>6615.0</v>
       </c>
+      <c r="AG224" t="n" s="8">
+        <v>6552.0</v>
+      </c>
+      <c r="AH224" t="n" s="8">
+        <v>6539.0</v>
+      </c>
+      <c r="AI224" t="n" s="8">
+        <v>6384.0</v>
+      </c>
+      <c r="AJ224"/>
     </row>
     <row r="225">
       <c r="A225" t="s" s="7">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B225" t="n" s="10">
         <v>3.6</v>
@@ -23060,10 +25288,20 @@
       <c r="AF225" t="n" s="10">
         <v>7.2</v>
       </c>
+      <c r="AG225" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AH225" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AI225" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AJ225"/>
     </row>
     <row r="226">
       <c r="A226" t="s" s="7">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B226" t="n" s="8">
         <v>970.0</v>
@@ -23158,10 +25396,20 @@
       <c r="AF226" t="n" s="8">
         <v>3636.0</v>
       </c>
+      <c r="AG226" t="n" s="8">
+        <v>1767.0</v>
+      </c>
+      <c r="AH226" t="n" s="8">
+        <v>1525.0</v>
+      </c>
+      <c r="AI226" t="n" s="8">
+        <v>1788.0</v>
+      </c>
+      <c r="AJ226"/>
     </row>
     <row r="227">
       <c r="A227" t="s" s="7">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B227" t="n" s="8">
         <v>26322.0</v>
@@ -23256,10 +25504,20 @@
       <c r="AF227" t="n" s="8">
         <v>47139.0</v>
       </c>
+      <c r="AG227" t="n" s="8">
+        <v>47668.0</v>
+      </c>
+      <c r="AH227" t="n" s="8">
+        <v>48189.0</v>
+      </c>
+      <c r="AI227" t="n" s="8">
+        <v>48919.0</v>
+      </c>
+      <c r="AJ227"/>
     </row>
     <row r="228">
       <c r="A228" t="s" s="7">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B228" t="n" s="8">
         <v>27292.0</v>
@@ -23354,10 +25612,20 @@
       <c r="AF228" t="n" s="8">
         <v>50775.0</v>
       </c>
+      <c r="AG228" t="n" s="8">
+        <v>49435.0</v>
+      </c>
+      <c r="AH228" t="n" s="8">
+        <v>49714.0</v>
+      </c>
+      <c r="AI228" t="n" s="8">
+        <v>50707.0</v>
+      </c>
+      <c r="AJ228"/>
     </row>
     <row r="229">
       <c r="A229" t="s" s="7">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B229" t="n" s="10">
         <v>5.3</v>
@@ -23452,10 +25720,20 @@
       <c r="AF229" t="n" s="10">
         <v>7.7</v>
       </c>
+      <c r="AG229" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AH229" t="n" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AI229" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AJ229"/>
     </row>
     <row r="230">
       <c r="A230" t="s" s="7">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B230" t="n" s="8">
         <v>1398.0</v>
@@ -23550,10 +25828,20 @@
       <c r="AF230" t="n" s="8">
         <v>2656.0</v>
       </c>
+      <c r="AG230" t="n" s="8">
+        <v>1431.0</v>
+      </c>
+      <c r="AH230" t="n" s="8">
+        <v>964.0</v>
+      </c>
+      <c r="AI230" t="n" s="8">
+        <v>934.0</v>
+      </c>
+      <c r="AJ230"/>
     </row>
     <row r="231">
       <c r="A231" t="s" s="7">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B231" t="n" s="8">
         <v>24879.0</v>
@@ -23648,10 +25936,20 @@
       <c r="AF231" t="n" s="8">
         <v>32035.0</v>
       </c>
+      <c r="AG231" t="n" s="8">
+        <v>33240.0</v>
+      </c>
+      <c r="AH231" t="n" s="8">
+        <v>33473.0</v>
+      </c>
+      <c r="AI231" t="n" s="8">
+        <v>34354.0</v>
+      </c>
+      <c r="AJ231"/>
     </row>
     <row r="232">
       <c r="A232" t="s" s="7">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B232" t="n" s="8">
         <v>26277.0</v>
@@ -23746,10 +26044,20 @@
       <c r="AF232" t="n" s="8">
         <v>34691.0</v>
       </c>
+      <c r="AG232" t="n" s="8">
+        <v>34671.0</v>
+      </c>
+      <c r="AH232" t="n" s="8">
+        <v>34437.0</v>
+      </c>
+      <c r="AI232" t="n" s="8">
+        <v>35288.0</v>
+      </c>
+      <c r="AJ232"/>
     </row>
     <row r="233">
       <c r="A233" t="s" s="7">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B233" t="n" s="10">
         <v>8.1</v>
@@ -23844,10 +26152,20 @@
       <c r="AF233" t="n" s="10">
         <v>8.0</v>
       </c>
+      <c r="AG233" t="n" s="10">
+        <v>5.2</v>
+      </c>
+      <c r="AH233" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AI233" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AJ233"/>
     </row>
     <row r="234">
       <c r="A234" t="s" s="7">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B234" t="n" s="8">
         <v>515.0</v>
@@ -23942,10 +26260,20 @@
       <c r="AF234" t="n" s="8">
         <v>643.0</v>
       </c>
+      <c r="AG234" t="n" s="8">
+        <v>419.0</v>
+      </c>
+      <c r="AH234" t="n" s="8">
+        <v>319.0</v>
+      </c>
+      <c r="AI234" t="n" s="8">
+        <v>342.0</v>
+      </c>
+      <c r="AJ234"/>
     </row>
     <row r="235">
       <c r="A235" t="s" s="7">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B235" t="n" s="8">
         <v>5873.0</v>
@@ -24040,10 +26368,20 @@
       <c r="AF235" t="n" s="8">
         <v>7372.0</v>
       </c>
+      <c r="AG235" t="n" s="8">
+        <v>7644.0</v>
+      </c>
+      <c r="AH235" t="n" s="8">
+        <v>7686.0</v>
+      </c>
+      <c r="AI235" t="n" s="8">
+        <v>7762.0</v>
+      </c>
+      <c r="AJ235"/>
     </row>
     <row r="236">
       <c r="A236" t="s" s="7">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B236" t="n" s="8">
         <v>6388.0</v>
@@ -24138,10 +26476,20 @@
       <c r="AF236" t="n" s="8">
         <v>8015.0</v>
       </c>
+      <c r="AG236" t="n" s="8">
+        <v>8063.0</v>
+      </c>
+      <c r="AH236" t="n" s="8">
+        <v>8005.0</v>
+      </c>
+      <c r="AI236" t="n" s="8">
+        <v>8104.0</v>
+      </c>
+      <c r="AJ236"/>
     </row>
     <row r="237">
       <c r="A237" t="s" s="7">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B237" t="n" s="10">
         <v>5.0</v>
@@ -24236,10 +26584,20 @@
       <c r="AF237" t="n" s="10">
         <v>6.5</v>
       </c>
+      <c r="AG237" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AH237" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AI237" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AJ237"/>
     </row>
     <row r="238">
       <c r="A238" t="s" s="7">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B238" t="n" s="8">
         <v>921.0</v>
@@ -24334,10 +26692,20 @@
       <c r="AF238" t="n" s="8">
         <v>1369.0</v>
       </c>
+      <c r="AG238" t="n" s="8">
+        <v>803.0</v>
+      </c>
+      <c r="AH238" t="n" s="8">
+        <v>597.0</v>
+      </c>
+      <c r="AI238" t="n" s="8">
+        <v>614.0</v>
+      </c>
+      <c r="AJ238"/>
     </row>
     <row r="239">
       <c r="A239" t="s" s="7">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B239" t="n" s="8">
         <v>17459.0</v>
@@ -24432,10 +26800,20 @@
       <c r="AF239" t="n" s="8">
         <v>19573.0</v>
       </c>
+      <c r="AG239" t="n" s="8">
+        <v>20192.0</v>
+      </c>
+      <c r="AH239" t="n" s="8">
+        <v>19920.0</v>
+      </c>
+      <c r="AI239" t="n" s="8">
+        <v>19862.0</v>
+      </c>
+      <c r="AJ239"/>
     </row>
     <row r="240">
       <c r="A240" t="s" s="7">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B240" t="n" s="8">
         <v>18380.0</v>
@@ -24530,10 +26908,20 @@
       <c r="AF240" t="n" s="8">
         <v>20942.0</v>
       </c>
+      <c r="AG240" t="n" s="8">
+        <v>20995.0</v>
+      </c>
+      <c r="AH240" t="n" s="8">
+        <v>20517.0</v>
+      </c>
+      <c r="AI240" t="n" s="8">
+        <v>20476.0</v>
+      </c>
+      <c r="AJ240"/>
     </row>
     <row r="241">
       <c r="A241" t="s" s="7">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B241" t="n" s="10">
         <v>4.1</v>
@@ -24628,10 +27016,20 @@
       <c r="AF241" t="n" s="10">
         <v>5.8</v>
       </c>
+      <c r="AG241" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AH241" t="n" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="AI241" t="n" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="AJ241"/>
     </row>
     <row r="242">
       <c r="A242" t="s" s="7">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B242" t="n" s="8">
         <v>2312.0</v>
@@ -24726,10 +27124,20 @@
       <c r="AF242" t="n" s="8">
         <v>3620.0</v>
       </c>
+      <c r="AG242" t="n" s="8">
+        <v>1967.0</v>
+      </c>
+      <c r="AH242" t="n" s="8">
+        <v>1496.0</v>
+      </c>
+      <c r="AI242" t="n" s="8">
+        <v>1542.0</v>
+      </c>
+      <c r="AJ242"/>
     </row>
     <row r="243">
       <c r="A243" t="s" s="7">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B243" t="n" s="8">
         <v>53629.0</v>
@@ -24824,10 +27232,20 @@
       <c r="AF243" t="n" s="8">
         <v>58343.0</v>
       </c>
+      <c r="AG243" t="n" s="8">
+        <v>59682.0</v>
+      </c>
+      <c r="AH243" t="n" s="8">
+        <v>59917.0</v>
+      </c>
+      <c r="AI243" t="n" s="8">
+        <v>61066.0</v>
+      </c>
+      <c r="AJ243"/>
     </row>
     <row r="244">
       <c r="A244" t="s" s="7">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B244" t="n" s="8">
         <v>55941.0</v>
@@ -24922,10 +27340,20 @@
       <c r="AF244" t="n" s="8">
         <v>61963.0</v>
       </c>
+      <c r="AG244" t="n" s="8">
+        <v>61649.0</v>
+      </c>
+      <c r="AH244" t="n" s="8">
+        <v>61413.0</v>
+      </c>
+      <c r="AI244" t="n" s="8">
+        <v>62608.0</v>
+      </c>
+      <c r="AJ244"/>
     </row>
     <row r="245">
       <c r="A245" t="s" s="7">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B245" t="n" s="10">
         <v>6.6</v>
@@ -25020,10 +27448,20 @@
       <c r="AF245" t="n" s="10">
         <v>5.0</v>
       </c>
+      <c r="AG245" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AH245" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AI245" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AJ245"/>
     </row>
     <row r="246">
       <c r="A246" t="s" s="7">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B246" t="n" s="8">
         <v>655.0</v>
@@ -25118,10 +27556,20 @@
       <c r="AF246" t="n" s="8">
         <v>553.0</v>
       </c>
+      <c r="AG246" t="n" s="8">
+        <v>388.0</v>
+      </c>
+      <c r="AH246" t="n" s="8">
+        <v>361.0</v>
+      </c>
+      <c r="AI246" t="n" s="8">
+        <v>398.0</v>
+      </c>
+      <c r="AJ246"/>
     </row>
     <row r="247">
       <c r="A247" t="s" s="7">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B247" t="n" s="8">
         <v>9309.0</v>
@@ -25216,10 +27664,20 @@
       <c r="AF247" t="n" s="8">
         <v>10526.0</v>
       </c>
+      <c r="AG247" t="n" s="8">
+        <v>10712.0</v>
+      </c>
+      <c r="AH247" t="n" s="8">
+        <v>10290.0</v>
+      </c>
+      <c r="AI247" t="n" s="8">
+        <v>10298.0</v>
+      </c>
+      <c r="AJ247"/>
     </row>
     <row r="248">
       <c r="A248" t="s" s="7">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B248" t="n" s="8">
         <v>9964.0</v>
@@ -25314,10 +27772,20 @@
       <c r="AF248" t="n" s="8">
         <v>11079.0</v>
       </c>
+      <c r="AG248" t="n" s="8">
+        <v>11100.0</v>
+      </c>
+      <c r="AH248" t="n" s="8">
+        <v>10651.0</v>
+      </c>
+      <c r="AI248" t="n" s="8">
+        <v>10696.0</v>
+      </c>
+      <c r="AJ248"/>
     </row>
     <row r="249">
       <c r="A249" t="s" s="7">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B249" t="n" s="10">
         <v>6.4</v>
@@ -25412,10 +27880,20 @@
       <c r="AF249" t="n" s="10">
         <v>7.1</v>
       </c>
+      <c r="AG249" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AH249" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AI249" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AJ249"/>
     </row>
     <row r="250">
       <c r="A250" t="s" s="7">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B250" t="n" s="8">
         <v>856.0</v>
@@ -25510,10 +27988,20 @@
       <c r="AF250" t="n" s="8">
         <v>1126.0</v>
       </c>
+      <c r="AG250" t="n" s="8">
+        <v>593.0</v>
+      </c>
+      <c r="AH250" t="n" s="8">
+        <v>465.0</v>
+      </c>
+      <c r="AI250" t="n" s="8">
+        <v>510.0</v>
+      </c>
+      <c r="AJ250"/>
     </row>
     <row r="251">
       <c r="A251" t="s" s="7">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B251" t="n" s="8">
         <v>12563.0</v>
@@ -25608,10 +28096,20 @@
       <c r="AF251" t="n" s="8">
         <v>14649.0</v>
       </c>
+      <c r="AG251" t="n" s="8">
+        <v>14844.0</v>
+      </c>
+      <c r="AH251" t="n" s="8">
+        <v>14441.0</v>
+      </c>
+      <c r="AI251" t="n" s="8">
+        <v>14246.0</v>
+      </c>
+      <c r="AJ251"/>
     </row>
     <row r="252">
       <c r="A252" t="s" s="7">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B252" t="n" s="8">
         <v>13419.0</v>
@@ -25706,10 +28204,20 @@
       <c r="AF252" t="n" s="8">
         <v>15775.0</v>
       </c>
+      <c r="AG252" t="n" s="8">
+        <v>15437.0</v>
+      </c>
+      <c r="AH252" t="n" s="8">
+        <v>14906.0</v>
+      </c>
+      <c r="AI252" t="n" s="8">
+        <v>14756.0</v>
+      </c>
+      <c r="AJ252"/>
     </row>
     <row r="253">
       <c r="A253" t="s" s="7">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B253" t="n" s="10">
         <v>4.6</v>
@@ -25804,10 +28312,20 @@
       <c r="AF253" t="n" s="10">
         <v>5.3</v>
       </c>
+      <c r="AG253" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AH253" t="n" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="AI253" t="n" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AJ253"/>
     </row>
     <row r="254">
       <c r="A254" t="s" s="7">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B254" t="n" s="8">
         <v>582.0</v>
@@ -25902,10 +28420,20 @@
       <c r="AF254" t="n" s="8">
         <v>805.0</v>
       </c>
+      <c r="AG254" t="n" s="8">
+        <v>512.0</v>
+      </c>
+      <c r="AH254" t="n" s="8">
+        <v>411.0</v>
+      </c>
+      <c r="AI254" t="n" s="8">
+        <v>430.0</v>
+      </c>
+      <c r="AJ254"/>
     </row>
     <row r="255">
       <c r="A255" t="s" s="7">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B255" t="n" s="8">
         <v>12048.0</v>
@@ -26000,10 +28528,20 @@
       <c r="AF255" t="n" s="8">
         <v>14266.0</v>
       </c>
+      <c r="AG255" t="n" s="8">
+        <v>14914.0</v>
+      </c>
+      <c r="AH255" t="n" s="8">
+        <v>14768.0</v>
+      </c>
+      <c r="AI255" t="n" s="8">
+        <v>14823.0</v>
+      </c>
+      <c r="AJ255"/>
     </row>
     <row r="256">
       <c r="A256" t="s" s="7">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B256" t="n" s="8">
         <v>12630.0</v>
@@ -26098,10 +28636,20 @@
       <c r="AF256" t="n" s="8">
         <v>15071.0</v>
       </c>
+      <c r="AG256" t="n" s="8">
+        <v>15426.0</v>
+      </c>
+      <c r="AH256" t="n" s="8">
+        <v>15179.0</v>
+      </c>
+      <c r="AI256" t="n" s="8">
+        <v>15253.0</v>
+      </c>
+      <c r="AJ256"/>
     </row>
     <row r="257">
       <c r="A257" t="s" s="7">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B257" t="n" s="10">
         <v>5.6</v>
@@ -26196,10 +28744,20 @@
       <c r="AF257" t="n" s="10">
         <v>7.3</v>
       </c>
+      <c r="AG257" t="n" s="10">
+        <v>4.9</v>
+      </c>
+      <c r="AH257" t="n" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="AI257" t="n" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="AJ257"/>
     </row>
     <row r="258">
       <c r="A258" t="s" s="7">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B258" t="n" s="8">
         <v>462.0</v>
@@ -26294,10 +28852,20 @@
       <c r="AF258" t="n" s="8">
         <v>764.0</v>
       </c>
+      <c r="AG258" t="n" s="8">
+        <v>509.0</v>
+      </c>
+      <c r="AH258" t="n" s="8">
+        <v>397.0</v>
+      </c>
+      <c r="AI258" t="n" s="8">
+        <v>413.0</v>
+      </c>
+      <c r="AJ258"/>
     </row>
     <row r="259">
       <c r="A259" t="s" s="7">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B259" t="n" s="8">
         <v>7820.0</v>
@@ -26392,10 +28960,20 @@
       <c r="AF259" t="n" s="8">
         <v>9640.0</v>
       </c>
+      <c r="AG259" t="n" s="8">
+        <v>9983.0</v>
+      </c>
+      <c r="AH259" t="n" s="8">
+        <v>9851.0</v>
+      </c>
+      <c r="AI259" t="n" s="8">
+        <v>10044.0</v>
+      </c>
+      <c r="AJ259"/>
     </row>
     <row r="260">
       <c r="A260" t="s" s="7">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B260" t="n" s="8">
         <v>8282.0</v>
@@ -26490,10 +29068,20 @@
       <c r="AF260" t="n" s="8">
         <v>10404.0</v>
       </c>
+      <c r="AG260" t="n" s="8">
+        <v>10492.0</v>
+      </c>
+      <c r="AH260" t="n" s="8">
+        <v>10248.0</v>
+      </c>
+      <c r="AI260" t="n" s="8">
+        <v>10457.0</v>
+      </c>
+      <c r="AJ260"/>
     </row>
     <row r="261">
       <c r="A261" t="s" s="7">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B261" t="n" s="10">
         <v>2.7</v>
@@ -26588,10 +29176,20 @@
       <c r="AF261" t="n" s="10">
         <v>6.2</v>
       </c>
+      <c r="AG261" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AH261" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AI261" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AJ261"/>
     </row>
     <row r="262">
       <c r="A262" t="s" s="7">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B262" t="n" s="8">
         <v>1143.0</v>
@@ -26686,10 +29284,20 @@
       <c r="AF262" t="n" s="8">
         <v>3530.0</v>
       </c>
+      <c r="AG262" t="n" s="8">
+        <v>2149.0</v>
+      </c>
+      <c r="AH262" t="n" s="8">
+        <v>1663.0</v>
+      </c>
+      <c r="AI262" t="n" s="8">
+        <v>1729.0</v>
+      </c>
+      <c r="AJ262"/>
     </row>
     <row r="263">
       <c r="A263" t="s" s="7">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B263" t="n" s="8">
         <v>40732.0</v>
@@ -26784,10 +29392,20 @@
       <c r="AF263" t="n" s="8">
         <v>53434.0</v>
       </c>
+      <c r="AG263" t="n" s="8">
+        <v>55683.0</v>
+      </c>
+      <c r="AH263" t="n" s="8">
+        <v>56235.0</v>
+      </c>
+      <c r="AI263" t="n" s="8">
+        <v>57386.0</v>
+      </c>
+      <c r="AJ263"/>
     </row>
     <row r="264">
       <c r="A264" t="s" s="7">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B264" t="n" s="8">
         <v>41875.0</v>
@@ -26882,10 +29500,20 @@
       <c r="AF264" t="n" s="8">
         <v>56964.0</v>
       </c>
+      <c r="AG264" t="n" s="8">
+        <v>57832.0</v>
+      </c>
+      <c r="AH264" t="n" s="8">
+        <v>57898.0</v>
+      </c>
+      <c r="AI264" t="n" s="8">
+        <v>59115.0</v>
+      </c>
+      <c r="AJ264"/>
     </row>
     <row r="265">
       <c r="A265" t="s" s="7">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B265" t="n" s="10">
         <v>7.1</v>
@@ -26980,10 +29608,20 @@
       <c r="AF265" t="n" s="10">
         <v>7.0</v>
       </c>
+      <c r="AG265" t="n" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="AH265" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AI265" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AJ265"/>
     </row>
     <row r="266">
       <c r="A266" t="s" s="7">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B266" t="n" s="8">
         <v>447.0</v>
@@ -27078,10 +29716,20 @@
       <c r="AF266" t="n" s="8">
         <v>553.0</v>
       </c>
+      <c r="AG266" t="n" s="8">
+        <v>369.0</v>
+      </c>
+      <c r="AH266" t="n" s="8">
+        <v>288.0</v>
+      </c>
+      <c r="AI266" t="n" s="8">
+        <v>288.0</v>
+      </c>
+      <c r="AJ266"/>
     </row>
     <row r="267">
       <c r="A267" t="s" s="7">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B267" t="n" s="8">
         <v>5868.0</v>
@@ -27176,10 +29824,20 @@
       <c r="AF267" t="n" s="8">
         <v>7313.0</v>
       </c>
+      <c r="AG267" t="n" s="8">
+        <v>7556.0</v>
+      </c>
+      <c r="AH267" t="n" s="8">
+        <v>7479.0</v>
+      </c>
+      <c r="AI267" t="n" s="8">
+        <v>7394.0</v>
+      </c>
+      <c r="AJ267"/>
     </row>
     <row r="268">
       <c r="A268" t="s" s="7">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B268" t="n" s="8">
         <v>6315.0</v>
@@ -27274,10 +29932,20 @@
       <c r="AF268" t="n" s="8">
         <v>7866.0</v>
       </c>
+      <c r="AG268" t="n" s="8">
+        <v>7925.0</v>
+      </c>
+      <c r="AH268" t="n" s="8">
+        <v>7767.0</v>
+      </c>
+      <c r="AI268" t="n" s="8">
+        <v>7682.0</v>
+      </c>
+      <c r="AJ268"/>
     </row>
     <row r="269">
       <c r="A269" t="s" s="7">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B269" t="n" s="10">
         <v>3.8</v>
@@ -27372,10 +30040,20 @@
       <c r="AF269" t="n" s="10">
         <v>5.7</v>
       </c>
+      <c r="AG269" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AH269" t="n" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="AI269" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AJ269"/>
     </row>
     <row r="270">
       <c r="A270" t="s" s="7">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B270" t="n" s="8">
         <v>2038.0</v>
@@ -27470,10 +30148,20 @@
       <c r="AF270" t="n" s="8">
         <v>4404.0</v>
       </c>
+      <c r="AG270" t="n" s="8">
+        <v>2410.0</v>
+      </c>
+      <c r="AH270" t="n" s="8">
+        <v>1859.0</v>
+      </c>
+      <c r="AI270" t="n" s="8">
+        <v>1977.0</v>
+      </c>
+      <c r="AJ270"/>
     </row>
     <row r="271">
       <c r="A271" t="s" s="7">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B271" t="n" s="8">
         <v>51734.0</v>
@@ -27568,10 +30256,20 @@
       <c r="AF271" t="n" s="8">
         <v>72277.0</v>
       </c>
+      <c r="AG271" t="n" s="8">
+        <v>74193.0</v>
+      </c>
+      <c r="AH271" t="n" s="8">
+        <v>74906.0</v>
+      </c>
+      <c r="AI271" t="n" s="8">
+        <v>75531.0</v>
+      </c>
+      <c r="AJ271"/>
     </row>
     <row r="272">
       <c r="A272" t="s" s="7">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B272" t="n" s="8">
         <v>53772.0</v>
@@ -27666,10 +30364,20 @@
       <c r="AF272" t="n" s="8">
         <v>76681.0</v>
       </c>
+      <c r="AG272" t="n" s="8">
+        <v>76603.0</v>
+      </c>
+      <c r="AH272" t="n" s="8">
+        <v>76765.0</v>
+      </c>
+      <c r="AI272" t="n" s="8">
+        <v>77508.0</v>
+      </c>
+      <c r="AJ272"/>
     </row>
     <row r="273">
       <c r="A273" t="s" s="7">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B273" t="n" s="10">
         <v>3.4</v>
@@ -27764,10 +30472,20 @@
       <c r="AF273" t="n" s="10">
         <v>5.7</v>
       </c>
+      <c r="AG273" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AH273" t="n" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="AI273" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AJ273"/>
     </row>
     <row r="274">
       <c r="A274" t="s" s="7">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B274" t="n" s="8">
         <v>5901.0</v>
@@ -27862,10 +30580,20 @@
       <c r="AF274" t="n" s="8">
         <v>12718.0</v>
       </c>
+      <c r="AG274" t="n" s="8">
+        <v>7105.0</v>
+      </c>
+      <c r="AH274" t="n" s="8">
+        <v>5550.0</v>
+      </c>
+      <c r="AI274" t="n" s="8">
+        <v>6001.0</v>
+      </c>
+      <c r="AJ274"/>
     </row>
     <row r="275">
       <c r="A275" t="s" s="7">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B275" t="n" s="8">
         <v>168445.0</v>
@@ -27960,10 +30688,20 @@
       <c r="AF275" t="n" s="8">
         <v>211048.0</v>
       </c>
+      <c r="AG275" t="n" s="8">
+        <v>216841.0</v>
+      </c>
+      <c r="AH275" t="n" s="8">
+        <v>218866.0</v>
+      </c>
+      <c r="AI275" t="n" s="8">
+        <v>220851.0</v>
+      </c>
+      <c r="AJ275"/>
     </row>
     <row r="276">
       <c r="A276" t="s" s="7">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B276" t="n" s="8">
         <v>174346.0</v>
@@ -28058,10 +30796,20 @@
       <c r="AF276" t="n" s="8">
         <v>223766.0</v>
       </c>
+      <c r="AG276" t="n" s="8">
+        <v>223946.0</v>
+      </c>
+      <c r="AH276" t="n" s="8">
+        <v>224416.0</v>
+      </c>
+      <c r="AI276" t="n" s="8">
+        <v>226852.0</v>
+      </c>
+      <c r="AJ276"/>
     </row>
     <row r="277">
       <c r="A277" t="s" s="7">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B277" t="n" s="10">
         <v>4.8</v>
@@ -28156,10 +30904,20 @@
       <c r="AF277" t="n" s="10">
         <v>5.6</v>
       </c>
+      <c r="AG277" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AH277" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AI277" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AJ277"/>
     </row>
     <row r="278">
       <c r="A278" t="s" s="7">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B278" t="n" s="8">
         <v>1104.0</v>
@@ -28254,10 +31012,20 @@
       <c r="AF278" t="n" s="8">
         <v>1454.0</v>
       </c>
+      <c r="AG278" t="n" s="8">
+        <v>938.0</v>
+      </c>
+      <c r="AH278" t="n" s="8">
+        <v>753.0</v>
+      </c>
+      <c r="AI278" t="n" s="8">
+        <v>770.0</v>
+      </c>
+      <c r="AJ278"/>
     </row>
     <row r="279">
       <c r="A279" t="s" s="7">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B279" t="n" s="8">
         <v>21888.0</v>
@@ -28352,10 +31120,20 @@
       <c r="AF279" t="n" s="8">
         <v>24301.0</v>
       </c>
+      <c r="AG279" t="n" s="8">
+        <v>24955.0</v>
+      </c>
+      <c r="AH279" t="n" s="8">
+        <v>24575.0</v>
+      </c>
+      <c r="AI279" t="n" s="8">
+        <v>24548.0</v>
+      </c>
+      <c r="AJ279"/>
     </row>
     <row r="280">
       <c r="A280" t="s" s="7">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B280" t="n" s="8">
         <v>22992.0</v>
@@ -28450,10 +31228,20 @@
       <c r="AF280" t="n" s="8">
         <v>25755.0</v>
       </c>
+      <c r="AG280" t="n" s="8">
+        <v>25893.0</v>
+      </c>
+      <c r="AH280" t="n" s="8">
+        <v>25328.0</v>
+      </c>
+      <c r="AI280" t="n" s="8">
+        <v>25318.0</v>
+      </c>
+      <c r="AJ280"/>
     </row>
     <row r="281">
       <c r="A281" t="s" s="7">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="B281" t="n" s="10">
         <v>6.1</v>
@@ -28548,10 +31336,20 @@
       <c r="AF281" t="n" s="10">
         <v>6.5</v>
       </c>
+      <c r="AG281" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AH281" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AI281" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AJ281"/>
     </row>
     <row r="282">
       <c r="A282" t="s" s="7">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B282" t="n" s="8">
         <v>551.0</v>
@@ -28646,10 +31444,20 @@
       <c r="AF282" t="n" s="8">
         <v>724.0</v>
       </c>
+      <c r="AG282" t="n" s="8">
+        <v>490.0</v>
+      </c>
+      <c r="AH282" t="n" s="8">
+        <v>380.0</v>
+      </c>
+      <c r="AI282" t="n" s="8">
+        <v>390.0</v>
+      </c>
+      <c r="AJ282"/>
     </row>
     <row r="283">
       <c r="A283" t="s" s="7">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B283" t="n" s="8">
         <v>8523.0</v>
@@ -28744,10 +31552,20 @@
       <c r="AF283" t="n" s="8">
         <v>10375.0</v>
       </c>
+      <c r="AG283" t="n" s="8">
+        <v>10833.0</v>
+      </c>
+      <c r="AH283" t="n" s="8">
+        <v>10744.0</v>
+      </c>
+      <c r="AI283" t="n" s="8">
+        <v>10833.0</v>
+      </c>
+      <c r="AJ283"/>
     </row>
     <row r="284">
       <c r="A284" t="s" s="7">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B284" t="n" s="8">
         <v>9074.0</v>
@@ -28842,10 +31660,20 @@
       <c r="AF284" t="n" s="8">
         <v>11099.0</v>
       </c>
+      <c r="AG284" t="n" s="8">
+        <v>11323.0</v>
+      </c>
+      <c r="AH284" t="n" s="8">
+        <v>11124.0</v>
+      </c>
+      <c r="AI284" t="n" s="8">
+        <v>11223.0</v>
+      </c>
+      <c r="AJ284"/>
     </row>
     <row r="285">
       <c r="A285" t="s" s="7">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B285" t="n" s="10">
         <v>3.4</v>
@@ -28940,10 +31768,20 @@
       <c r="AF285" t="n" s="10">
         <v>5.6</v>
       </c>
+      <c r="AG285" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AH285" t="n" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="AI285" t="n" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="AJ285"/>
     </row>
     <row r="286">
       <c r="A286" t="s" s="7">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B286" t="n" s="8">
         <v>2874.0</v>
@@ -29038,10 +31876,20 @@
       <c r="AF286" t="n" s="8">
         <v>5121.0</v>
       </c>
+      <c r="AG286" t="n" s="8">
+        <v>3034.0</v>
+      </c>
+      <c r="AH286" t="n" s="8">
+        <v>2341.0</v>
+      </c>
+      <c r="AI286" t="n" s="8">
+        <v>2480.0</v>
+      </c>
+      <c r="AJ286"/>
     </row>
     <row r="287">
       <c r="A287" t="s" s="7">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B287" t="n" s="8">
         <v>81007.0</v>
@@ -29136,10 +31984,20 @@
       <c r="AF287" t="n" s="8">
         <v>87085.0</v>
       </c>
+      <c r="AG287" t="n" s="8">
+        <v>89296.0</v>
+      </c>
+      <c r="AH287" t="n" s="8">
+        <v>90256.0</v>
+      </c>
+      <c r="AI287" t="n" s="8">
+        <v>90754.0</v>
+      </c>
+      <c r="AJ287"/>
     </row>
     <row r="288">
       <c r="A288" t="s" s="7">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B288" t="n" s="8">
         <v>83881.0</v>
@@ -29234,10 +32092,20 @@
       <c r="AF288" t="n" s="8">
         <v>92206.0</v>
       </c>
+      <c r="AG288" t="n" s="8">
+        <v>92330.0</v>
+      </c>
+      <c r="AH288" t="n" s="8">
+        <v>92597.0</v>
+      </c>
+      <c r="AI288" t="n" s="8">
+        <v>93234.0</v>
+      </c>
+      <c r="AJ288"/>
     </row>
     <row r="289">
       <c r="A289" t="s" s="7">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B289" t="n" s="10">
         <v>4.2</v>
@@ -29332,10 +32200,20 @@
       <c r="AF289" t="n" s="10">
         <v>6.8</v>
       </c>
+      <c r="AG289" t="n" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="AH289" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AI289" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AJ289"/>
     </row>
     <row r="290">
       <c r="A290" t="s" s="7">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B290" t="n" s="8">
         <v>1568.0</v>
@@ -29430,10 +32308,20 @@
       <c r="AF290" t="n" s="8">
         <v>2380.0</v>
       </c>
+      <c r="AG290" t="n" s="8">
+        <v>1550.0</v>
+      </c>
+      <c r="AH290" t="n" s="8">
+        <v>1117.0</v>
+      </c>
+      <c r="AI290" t="n" s="8">
+        <v>1185.0</v>
+      </c>
+      <c r="AJ290"/>
     </row>
     <row r="291">
       <c r="A291" t="s" s="7">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B291" t="n" s="8">
         <v>35971.0</v>
@@ -29528,10 +32416,20 @@
       <c r="AF291" t="n" s="8">
         <v>32421.0</v>
       </c>
+      <c r="AG291" t="n" s="8">
+        <v>32772.0</v>
+      </c>
+      <c r="AH291" t="n" s="8">
+        <v>32568.0</v>
+      </c>
+      <c r="AI291" t="n" s="8">
+        <v>32307.0</v>
+      </c>
+      <c r="AJ291"/>
     </row>
     <row r="292">
       <c r="A292" t="s" s="7">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B292" t="n" s="8">
         <v>37539.0</v>
@@ -29626,6 +32524,16 @@
       <c r="AF292" t="n" s="8">
         <v>34801.0</v>
       </c>
+      <c r="AG292" t="n" s="8">
+        <v>34322.0</v>
+      </c>
+      <c r="AH292" t="n" s="8">
+        <v>33685.0</v>
+      </c>
+      <c r="AI292" t="n" s="8">
+        <v>33492.0</v>
+      </c>
+      <c r="AJ292"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -29636,7 +32544,7 @@
   <pageSetup orientation="landscape"/>
   <headerFooter>
     <oddHeader>&amp;CBureau of Labor Statistics</oddHeader>
-    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: December 27, 2024 (10:56:50 AM)</oddFooter>
+    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: January 5, 2025 (03:46:58 PM)</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
